--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3042081.799264375</v>
+        <v>3011781.359792131</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1509939.754673147</v>
+        <v>1509939.754673146</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3769264.09568466</v>
+        <v>3769264.095684657</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.84140014930867</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.91464376220975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>12.73205987707309</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S3" t="n">
-        <v>12.73205987707308</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>15.30273751513505</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.52936184871842</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>9.956053622142033</v>
       </c>
       <c r="F5" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.30273751513505</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="S6" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>15.30273751513505</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="T7" t="n">
         <v>15.30273751513505</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>9.956053622142035</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>6.602605461619501</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,76 +1209,76 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>12.73205987707308</v>
-      </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="Y9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="K10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R10" t="n">
+        <v>10.75721046822444</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="S10" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="T10" t="n">
-        <v>10.75721046822444</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>2.3439825065497</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>226.8155218883325</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>211.6072823834167</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>82.60836983805547</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>22.00159820879924</v>
       </c>
       <c r="S11" t="n">
-        <v>81.1525498538949</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>95.22832983178091</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>199.8847387377845</v>
       </c>
       <c r="W11" t="n">
-        <v>221.3734489850626</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>163.0037347257886</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>38.66566391751689</v>
       </c>
       <c r="C12" t="n">
         <v>44.84097925596529</v>
@@ -1515,7 +1515,7 @@
         <v>77.90546547112703</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.81517604495392</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.96446044958685</v>
+        <v>14.6023680492689</v>
       </c>
       <c r="C13" t="n">
-        <v>39.37930136627739</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>20.74795328586191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>17.5535282905808</v>
       </c>
       <c r="G13" t="n">
-        <v>40.12345962610831</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3.672755111544929</v>
+        <v>27.58295519490784</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>49.42587164481904</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.14907830462181</v>
       </c>
       <c r="T13" t="n">
         <v>100.078069695931</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>225.496690640665</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>199.6986009854246</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>70.6996884400634</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10.09291681080717</v>
       </c>
       <c r="S14" t="n">
         <v>69.24386845590283</v>
       </c>
       <c r="T14" t="n">
-        <v>83.31964843378884</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>111.569451777494</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>187.9760573397924</v>
+        <v>88.82589950319515</v>
       </c>
       <c r="W14" t="n">
-        <v>209.4647675870705</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>229.9548995481265</v>
       </c>
       <c r="Y14" t="n">
-        <v>74.05585769694591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1695,19 +1695,19 @@
         <v>17.86887932505843</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>5.293011263041365</v>
       </c>
       <c r="G15" t="n">
-        <v>99.58166631014647</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100.2477506184368</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>31.90696997349531</v>
@@ -1746,7 +1746,7 @@
         <v>93.02438601908275</v>
       </c>
       <c r="W15" t="n">
-        <v>111.9187820305771</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>65.99678407313496</v>
@@ -1856,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>125.7167930125606</v>
+        <v>188.1490553379928</v>
       </c>
       <c r="I17" t="n">
-        <v>59.15014279263156</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.69432280847099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>100.0199061300621</v>
+        <v>94.82620449012757</v>
       </c>
       <c r="V17" t="n">
         <v>176.4265116923605</v>
       </c>
       <c r="W17" t="n">
-        <v>197.9152219396387</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>218.4053539006947</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>234.9121918782792</v>
       </c>
     </row>
     <row r="18">
@@ -1923,25 +1923,25 @@
         <v>15.20743687209298</v>
       </c>
       <c r="C18" t="n">
-        <v>21.38275221054138</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>30.53928113307535</v>
+        <v>6.319333677626588</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>65.91029738285388</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>20.35742432606347</v>
       </c>
       <c r="T18" t="n">
         <v>48.83898191704725</v>
       </c>
       <c r="U18" t="n">
-        <v>74.61563530320046</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>81.47484037165091</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>231.4080948857062</v>
       </c>
       <c r="C20" t="n">
-        <v>213.9471449932332</v>
+        <v>156.2235738484177</v>
       </c>
       <c r="D20" t="n">
-        <v>203.3572948429086</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>230.6046232944874</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.50699726751083</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>71.770102786357</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>6.319333677626588</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>14.66187773975531</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>20.35742432606347</v>
       </c>
       <c r="T21" t="n">
-        <v>59.07669975793235</v>
+        <v>48.83898191704725</v>
       </c>
       <c r="U21" t="n">
-        <v>74.61563530320046</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>81.47484037165091</v>
       </c>
       <c r="W21" t="n">
-        <v>100.3692363831452</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>54.44723842570312</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.4080948857062</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>213.9471449932332</v>
@@ -2327,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>255.5502989639371</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>238.8437728357852</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>188.1490553379928</v>
       </c>
       <c r="I23" t="n">
-        <v>59.15014279263156</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>100.0199061300621</v>
       </c>
       <c r="V23" t="n">
-        <v>115.0938553727638</v>
+        <v>176.4265116923605</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>218.4053539006947</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>234.9121918782792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.20743687209298</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>21.38275221054138</v>
@@ -2403,19 +2403,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>32.85213514723389</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>20.35742432606347</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>158.7256358454865</v>
+        <v>74.61563530320046</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>100.3692363831452</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>54.44723842570312</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>54.35694899953</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>232.9616489390799</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>249.6191272403341</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>274.5648029097838</v>
       </c>
       <c r="G26" t="n">
         <v>282.9914946832074</v>
@@ -2573,7 +2573,7 @@
         <v>207.1635592838395</v>
       </c>
       <c r="I26" t="n">
-        <v>44.60828342581313</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>17.55787510922204</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>76.7088267543177</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>90.78460673220371</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>119.0344100759089</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>216.9297258854854</v>
+        <v>187.3337076022904</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>253.9266958241259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,16 +2634,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>40.3972561563881</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>25.3338376234733</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>12.75796956145624</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>39.37192827191018</v>
@@ -2688,19 +2688,19 @@
         <v>67.85348586289396</v>
       </c>
       <c r="U27" t="n">
-        <v>93.63013924904718</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>100.4893443174976</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>119.383740328992</v>
+        <v>162.2425765110413</v>
       </c>
       <c r="X27" t="n">
         <v>73.46174237154983</v>
       </c>
       <c r="Y27" t="n">
-        <v>84.07688044814165</v>
+        <v>73.37145294537672</v>
       </c>
     </row>
     <row r="28">
@@ -2731,7 +2731,7 @@
         <v>29.91592967551193</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>23.13923209533064</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>95.63434659635385</v>
       </c>
       <c r="U28" t="n">
-        <v>105.659835115424</v>
+        <v>154.0077865245632</v>
       </c>
       <c r="V28" t="n">
         <v>119.8264004919004</v>
       </c>
       <c r="W28" t="n">
-        <v>154.2117555046634</v>
+        <v>82.72457200019298</v>
       </c>
       <c r="X28" t="n">
         <v>93.39841255710951</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.045926115274187</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>229.4132366083077</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>133.1765352143331</v>
       </c>
       <c r="E29" t="n">
-        <v>246.0707149095619</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>271.0163905790116</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>279.4430823524352</v>
+        <v>279.4430823524353</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>203.6151469530674</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>14.00946277844983</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>191.8926033074351</v>
       </c>
       <c r="W29" t="n">
         <v>213.3813135547132</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>233.8714455157693</v>
       </c>
       <c r="Y29" t="n">
-        <v>250.3782834933537</v>
+        <v>250.3782834933538</v>
       </c>
     </row>
     <row r="30">
@@ -2868,31 +2868,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30.67352848716749</v>
+        <v>30.67352848716757</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>36.84884382561597</v>
       </c>
       <c r="D30" t="n">
-        <v>11.5854104019389</v>
+        <v>11.58541040193899</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>9.209557230684027</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>1.483862000510783</v>
+        <v>1.483862000510868</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>35.82351594113806</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>149.9968429889066</v>
+        <v>90.08172691827505</v>
       </c>
       <c r="V30" t="n">
-        <v>96.94093198672542</v>
+        <v>96.9409319867255</v>
       </c>
       <c r="W30" t="n">
-        <v>115.8353279982198</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>69.91333004077762</v>
+        <v>75.38704294379204</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>69.82304061460459</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.97232501923745</v>
+        <v>43.97232501923753</v>
       </c>
       <c r="C31" t="n">
-        <v>31.38716593592798</v>
+        <v>31.38716593592807</v>
       </c>
       <c r="D31" t="n">
-        <v>12.7558178555125</v>
+        <v>12.75581785551259</v>
       </c>
       <c r="E31" t="n">
-        <v>10.57430748386932</v>
+        <v>10.5743074838694</v>
       </c>
       <c r="F31" t="n">
-        <v>9.561392860231393</v>
+        <v>9.561392860231479</v>
       </c>
       <c r="G31" t="n">
-        <v>32.13132419575891</v>
+        <v>32.13132419575899</v>
       </c>
       <c r="H31" t="n">
-        <v>26.36751734473972</v>
+        <v>26.36751734473981</v>
       </c>
       <c r="I31" t="n">
-        <v>19.59081976455844</v>
+        <v>19.59081976455852</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.43373621446963</v>
+        <v>41.43373621446964</v>
       </c>
       <c r="S31" t="n">
-        <v>88.1569428742724</v>
+        <v>88.15694287427249</v>
       </c>
       <c r="T31" t="n">
-        <v>92.08593426558164</v>
+        <v>92.08593426558173</v>
       </c>
       <c r="U31" t="n">
-        <v>150.459374193791</v>
+        <v>150.4593741937911</v>
       </c>
       <c r="V31" t="n">
-        <v>116.2779881611281</v>
+        <v>116.2779881611282</v>
       </c>
       <c r="W31" t="n">
-        <v>150.6633431738911</v>
+        <v>150.6633431738912</v>
       </c>
       <c r="X31" t="n">
-        <v>89.8500002263373</v>
+        <v>89.85000022633739</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.72499818939494</v>
+        <v>82.72499818939502</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>154.1419895369553</v>
+        <v>159.6379920993492</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>142.1770422068762</v>
       </c>
       <c r="D32" t="n">
-        <v>131.5871920565516</v>
+        <v>100.2930998389175</v>
       </c>
       <c r="E32" t="n">
         <v>158.8345205081304</v>
@@ -3044,7 +3044,7 @@
         <v>192.2068879510037</v>
       </c>
       <c r="H32" t="n">
-        <v>116.3789525516358</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>129.9796159656094</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>38.00759377881067</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>159.6379920993492</v>
       </c>
       <c r="C35" t="n">
-        <v>142.1770422068762</v>
+        <v>11.35884874460735</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>183.7801961775801</v>
       </c>
       <c r="G35" t="n">
-        <v>192.2068879510037</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>107.3867857346993</v>
+        <v>116.3789525516358</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>28.24980334370514</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>126.1451191532817</v>
       </c>
       <c r="X35" t="n">
         <v>146.6352511143377</v>
@@ -3345,13 +3345,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>135.6381620797218</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3396,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>2.845532516843463</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>9.704737585293913</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>28.59913359678825</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>51.31155306944614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>159.6379920993492</v>
       </c>
       <c r="C38" t="n">
-        <v>142.1770422068762</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>131.5871920565516</v>
@@ -3512,7 +3512,7 @@
         <v>158.8345205081304</v>
       </c>
       <c r="F38" t="n">
-        <v>183.7801961775801</v>
+        <v>41.76999964104298</v>
       </c>
       <c r="G38" t="n">
         <v>192.2068879510037</v>
@@ -3560,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>104.6564089060035</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>126.7424133762771</v>
+        <v>146.6352511143377</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>63.56439358896057</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>2.845532516843463</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>102.9664640366239</v>
+        <v>28.59913359678825</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3740,25 +3740,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>207.3438396043886</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>102.224520164535</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>96.23305579277827</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,22 +3785,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>35.62628416352204</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>108.8530157865037</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>137.1028191302088</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>234.9981349397854</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>65.58914640430966</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>53.0039873210002</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>34.37263924058472</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F43" t="n">
-        <v>31.17821424530361</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>53.74814558083112</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>47.98433872981194</v>
       </c>
       <c r="I43" t="n">
         <v>41.20764114963065</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>106.4118883321821</v>
+        <v>109.7737642593446</v>
       </c>
       <c r="T43" t="n">
         <v>113.7027556506539</v>
@@ -3955,16 +3955,16 @@
         <v>172.0761955788632</v>
       </c>
       <c r="V43" t="n">
-        <v>137.8948095462003</v>
+        <v>54.2563978650208</v>
       </c>
       <c r="W43" t="n">
-        <v>172.2801645589633</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>161.2020077511557</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.08337789228632</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>67.74744360100398</v>
+        <v>67.74744360100394</v>
       </c>
       <c r="C45" t="n">
-        <v>73.92275893945238</v>
+        <v>73.92275893945234</v>
       </c>
       <c r="D45" t="n">
-        <v>48.65932551577539</v>
+        <v>48.65932551577535</v>
       </c>
       <c r="E45" t="n">
-        <v>58.85934040653758</v>
+        <v>58.85934040653754</v>
       </c>
       <c r="F45" t="n">
-        <v>46.28347234452052</v>
+        <v>18.24557946773854</v>
       </c>
       <c r="G45" t="n">
-        <v>38.55777711434727</v>
+        <v>38.55777711434723</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,19 +4101,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.37209410377973</v>
       </c>
       <c r="S45" t="n">
-        <v>72.89743105497446</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>127.1556420321115</v>
+        <v>127.1556420321114</v>
       </c>
       <c r="V45" t="n">
-        <v>34.45161727258485</v>
+        <v>134.0148471005619</v>
       </c>
       <c r="W45" t="n">
         <v>152.9092431120562</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>69.2052393095954</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>78.50765132830608</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>6.802806567067302</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>187.5332893076275</v>
       </c>
       <c r="V46" t="n">
-        <v>153.3519032749646</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>187.7372582877276</v>
       </c>
       <c r="X46" t="n">
-        <v>109.4761439542184</v>
+        <v>126.9239153401737</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>119.7989133032314</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F2" t="n">
-        <v>28.75151886964269</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J2" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K2" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L2" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M2" t="n">
-        <v>15.7618196405891</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N2" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O2" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P2" t="n">
         <v>61.2109500605402</v>
@@ -4352,28 +4352,28 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R2" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="S2" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="T2" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="U2" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="V2" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="W2" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="X2" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="Y2" t="n">
-        <v>51.11933469231312</v>
+        <v>23.62703037176281</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.89297289669359</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="C3" t="n">
-        <v>32.89297289669359</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="D3" t="n">
-        <v>32.89297289669359</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="E3" t="n">
-        <v>32.89297289669359</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="F3" t="n">
-        <v>32.89297289669359</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="G3" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="H3" t="n">
-        <v>17.43566227534506</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="I3" t="n">
         <v>1.978351653996518</v>
@@ -4410,49 +4410,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L3" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M3" t="n">
-        <v>31.52363928117821</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="N3" t="n">
-        <v>46.6733494211619</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O3" t="n">
-        <v>46.6733494211619</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="P3" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="Q3" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R3" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="S3" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="T3" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="U3" t="n">
         <v>45.75363943919166</v>
       </c>
-      <c r="S3" t="n">
-        <v>32.89297289669359</v>
-      </c>
-      <c r="T3" t="n">
-        <v>32.89297289669359</v>
-      </c>
-      <c r="U3" t="n">
-        <v>32.89297289669359</v>
-      </c>
       <c r="V3" t="n">
-        <v>32.89297289669359</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W3" t="n">
-        <v>32.89297289669359</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X3" t="n">
-        <v>32.89297289669359</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y3" t="n">
-        <v>32.89297289669359</v>
+        <v>14.83901819649459</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.54739878238201</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="C4" t="n">
-        <v>27.54739878238201</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="D4" t="n">
-        <v>27.54739878238201</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="E4" t="n">
-        <v>27.54739878238201</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="F4" t="n">
-        <v>27.54739878238201</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="G4" t="n">
-        <v>27.54739878238201</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="H4" t="n">
-        <v>27.54739878238201</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="I4" t="n">
-        <v>16.68152962255934</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="J4" t="n">
-        <v>16.68152962255934</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="K4" t="n">
         <v>1.224219001210804</v>
@@ -4504,34 +4504,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P4" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R4" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S4" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T4" t="n">
-        <v>43.00470940373054</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U4" t="n">
-        <v>27.54739878238201</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V4" t="n">
-        <v>27.54739878238201</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W4" t="n">
-        <v>27.54739878238201</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X4" t="n">
-        <v>27.54739878238201</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.54739878238201</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.20882949099123</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C5" t="n">
-        <v>44.20882949099123</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="D5" t="n">
-        <v>44.20882949099123</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="E5" t="n">
-        <v>44.20882949099123</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="F5" t="n">
         <v>28.75151886964269</v>
@@ -4568,16 +4568,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>15.7618196405891</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L5" t="n">
-        <v>15.7618196405891</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N5" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O5" t="n">
         <v>46.0612399205565</v>
@@ -4598,7 +4598,7 @@
         <v>61.2109500605402</v>
       </c>
       <c r="U5" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V5" t="n">
         <v>45.75363943919166</v>
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C6" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J6" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K6" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L6" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M6" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N6" t="n">
         <v>46.0612399205565</v>
@@ -4668,28 +4668,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>45.75363943919166</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="S6" t="n">
-        <v>30.29632881784312</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="T6" t="n">
-        <v>30.29632881784312</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="U6" t="n">
-        <v>30.29632881784312</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V6" t="n">
-        <v>30.29632881784312</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W6" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X6" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.224219001210804</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="C7" t="n">
-        <v>1.224219001210804</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="D7" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="E7" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F7" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G7" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H7" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I7" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="J7" t="n">
         <v>1.224219001210804</v>
@@ -4729,46 +4729,46 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L7" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M7" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N7" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O7" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="P7" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R7" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S7" t="n">
-        <v>27.54739878238201</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="T7" t="n">
-        <v>12.09008816103347</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="U7" t="n">
-        <v>12.09008816103347</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V7" t="n">
-        <v>12.09008816103347</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="W7" t="n">
-        <v>1.224219001210804</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="X7" t="n">
-        <v>1.224219001210804</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.224219001210804</v>
+        <v>32.13884024390788</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.75363943919166</v>
+        <v>54.54165161445989</v>
       </c>
       <c r="C8" t="n">
-        <v>45.75363943919166</v>
+        <v>54.54165161445989</v>
       </c>
       <c r="D8" t="n">
-        <v>45.75363943919166</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="E8" t="n">
-        <v>45.75363943919166</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="F8" t="n">
-        <v>38.80813868998818</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="G8" t="n">
-        <v>23.35082806863965</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H8" t="n">
-        <v>23.35082806863965</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M8" t="n">
-        <v>30.9115297805728</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9115297805728</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O8" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
@@ -4841,13 +4841,13 @@
         <v>61.2109500605402</v>
       </c>
       <c r="W8" t="n">
-        <v>61.2109500605402</v>
+        <v>54.54165161445989</v>
       </c>
       <c r="X8" t="n">
-        <v>61.2109500605402</v>
+        <v>54.54165161445989</v>
       </c>
       <c r="Y8" t="n">
-        <v>45.75363943919166</v>
+        <v>54.54165161445989</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L9" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M9" t="n">
-        <v>31.52363928117821</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N9" t="n">
         <v>46.0612399205565</v>
@@ -4905,10 +4905,10 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T9" t="n">
         <v>45.75363943919166</v>
@@ -4917,16 +4917,16 @@
         <v>45.75363943919166</v>
       </c>
       <c r="V9" t="n">
-        <v>32.89297289669359</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W9" t="n">
-        <v>32.89297289669359</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X9" t="n">
-        <v>17.43566227534506</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="10">
@@ -4960,7 +4960,7 @@
         <v>16.68152962255934</v>
       </c>
       <c r="J10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
@@ -4969,7 +4969,7 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N10" t="n">
         <v>46.0612399205565</v>
@@ -4981,28 +4981,28 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R10" t="n">
-        <v>43.00470940373054</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="S10" t="n">
-        <v>27.54739878238201</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="T10" t="n">
-        <v>16.68152962255934</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="U10" t="n">
-        <v>16.68152962255934</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V10" t="n">
-        <v>16.68152962255934</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="W10" t="n">
-        <v>16.68152962255934</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="X10" t="n">
-        <v>16.68152962255934</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="Y10" t="n">
         <v>16.68152962255934</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>318.8363297041743</v>
+        <v>331.8305286924228</v>
       </c>
       <c r="C11" t="n">
-        <v>316.4686706066493</v>
+        <v>331.8305286924228</v>
       </c>
       <c r="D11" t="n">
-        <v>316.4686706066493</v>
+        <v>102.7239409264304</v>
       </c>
       <c r="E11" t="n">
-        <v>316.4686706066493</v>
+        <v>102.7239409264304</v>
       </c>
       <c r="F11" t="n">
-        <v>316.4686706066493</v>
+        <v>102.7239409264304</v>
       </c>
       <c r="G11" t="n">
-        <v>316.4686706066493</v>
+        <v>102.7239409264304</v>
       </c>
       <c r="H11" t="n">
         <v>102.7239409264304</v>
@@ -5063,28 +5063,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>941.8333189360916</v>
       </c>
       <c r="S11" t="n">
-        <v>882.0848829309444</v>
+        <v>941.8333189360916</v>
       </c>
       <c r="T11" t="n">
-        <v>785.8946507776304</v>
+        <v>941.8333189360916</v>
       </c>
       <c r="U11" t="n">
-        <v>785.8946507776304</v>
+        <v>941.8333189360916</v>
       </c>
       <c r="V11" t="n">
-        <v>785.8946507776304</v>
+        <v>739.929542433279</v>
       </c>
       <c r="W11" t="n">
-        <v>562.2851063482743</v>
+        <v>739.929542433279</v>
       </c>
       <c r="X11" t="n">
-        <v>318.8363297041743</v>
+        <v>575.2793053365228</v>
       </c>
       <c r="Y11" t="n">
-        <v>318.8363297041743</v>
+        <v>575.2793053365228</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
         <v>964.0571555106362</v>
@@ -5163,7 +5163,7 @@
         <v>437.9432979355312</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.3421100113354</v>
+        <v>230.1829991705773</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124.2543445140436</v>
+        <v>64.87355067131236</v>
       </c>
       <c r="C13" t="n">
-        <v>84.4772724268947</v>
+        <v>64.87355067131236</v>
       </c>
       <c r="D13" t="n">
-        <v>63.51974385531701</v>
+        <v>64.87355067131236</v>
       </c>
       <c r="E13" t="n">
-        <v>63.51974385531701</v>
+        <v>64.87355067131236</v>
       </c>
       <c r="F13" t="n">
-        <v>63.51974385531701</v>
+        <v>47.14271401416003</v>
       </c>
       <c r="G13" t="n">
-        <v>22.99099675823791</v>
+        <v>47.14271401416003</v>
       </c>
       <c r="H13" t="n">
-        <v>22.99099675823791</v>
+        <v>47.14271401416003</v>
       </c>
       <c r="I13" t="n">
         <v>19.28114311021272</v>
@@ -5224,25 +5224,25 @@
         <v>914.1320326370816</v>
       </c>
       <c r="S13" t="n">
-        <v>914.1320326370816</v>
+        <v>817.0117515213019</v>
       </c>
       <c r="T13" t="n">
-        <v>813.0430733482623</v>
+        <v>715.9227922324826</v>
       </c>
       <c r="U13" t="n">
-        <v>652.9910434248881</v>
+        <v>555.8707623091084</v>
       </c>
       <c r="V13" t="n">
-        <v>527.4656660597592</v>
+        <v>430.3453849439795</v>
       </c>
       <c r="W13" t="n">
-        <v>367.2076068635566</v>
+        <v>270.087325747777</v>
       </c>
       <c r="X13" t="n">
-        <v>268.3771668062973</v>
+        <v>171.2568856905177</v>
       </c>
       <c r="Y13" t="n">
-        <v>176.7436985035253</v>
+        <v>79.62341738774559</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>220.9969016813487</v>
+        <v>318.4694048079182</v>
       </c>
       <c r="C14" t="n">
-        <v>220.9969016813487</v>
+        <v>90.69496981734747</v>
       </c>
       <c r="D14" t="n">
-        <v>220.9969016813487</v>
+        <v>90.69496981734747</v>
       </c>
       <c r="E14" t="n">
-        <v>220.9969016813487</v>
+        <v>90.69496981734747</v>
       </c>
       <c r="F14" t="n">
-        <v>220.9969016813487</v>
+        <v>90.69496981734747</v>
       </c>
       <c r="G14" t="n">
-        <v>220.9969016813487</v>
+        <v>90.69496981734747</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>90.69496981734747</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.8622900451744</v>
       </c>
       <c r="S14" t="n">
-        <v>894.1138540400273</v>
+        <v>883.9189885745654</v>
       </c>
       <c r="T14" t="n">
-        <v>809.9525929957961</v>
+        <v>883.9189885745654</v>
       </c>
       <c r="U14" t="n">
-        <v>697.2561770589334</v>
+        <v>883.9189885745654</v>
       </c>
       <c r="V14" t="n">
-        <v>507.3813716652037</v>
+        <v>794.1958577632572</v>
       </c>
       <c r="W14" t="n">
-        <v>295.8007983449305</v>
+        <v>794.1958577632572</v>
       </c>
       <c r="X14" t="n">
-        <v>295.8007983449305</v>
+        <v>561.9181814520183</v>
       </c>
       <c r="Y14" t="n">
-        <v>220.9969016813487</v>
+        <v>561.9181814520183</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>416.5176527046887</v>
+        <v>184.948621391835</v>
       </c>
       <c r="C15" t="n">
-        <v>383.2527053734026</v>
+        <v>151.6836740605489</v>
       </c>
       <c r="D15" t="n">
-        <v>375.5063776619922</v>
+        <v>143.9373463491386</v>
       </c>
       <c r="E15" t="n">
-        <v>357.4570046063777</v>
+        <v>125.887973293524</v>
       </c>
       <c r="F15" t="n">
-        <v>210.9224466332626</v>
+        <v>120.5414972702499</v>
       </c>
       <c r="G15" t="n">
-        <v>110.334904905842</v>
+        <v>120.5414972702499</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>931.827892911146</v>
+        <v>830.6583634640317</v>
       </c>
       <c r="T15" t="n">
-        <v>870.829380219753</v>
+        <v>769.6598507726387</v>
       </c>
       <c r="U15" t="n">
-        <v>783.7938439059831</v>
+        <v>682.6243144588688</v>
       </c>
       <c r="V15" t="n">
-        <v>689.8298176240813</v>
+        <v>588.660288176967</v>
       </c>
       <c r="W15" t="n">
-        <v>576.7805428457207</v>
+        <v>345.211511532867</v>
       </c>
       <c r="X15" t="n">
-        <v>510.1171245900288</v>
+        <v>278.5480932771751</v>
       </c>
       <c r="Y15" t="n">
-        <v>443.5449077749158</v>
+        <v>211.9758764620621</v>
       </c>
     </row>
     <row r="16">
@@ -5446,7 +5446,7 @@
         <v>524.8246775631742</v>
       </c>
       <c r="N16" t="n">
-        <v>612.5772106655525</v>
+        <v>706.8939673376497</v>
       </c>
       <c r="O16" t="n">
         <v>775.2949264194908</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>206.0154217013159</v>
+        <v>452.7794706007702</v>
       </c>
       <c r="C17" t="n">
-        <v>206.0154217013159</v>
+        <v>452.7794706007702</v>
       </c>
       <c r="D17" t="n">
-        <v>206.0154217013159</v>
+        <v>452.7794706007702</v>
       </c>
       <c r="E17" t="n">
-        <v>206.0154217013159</v>
+        <v>452.7794706007702</v>
       </c>
       <c r="F17" t="n">
-        <v>206.0154217013159</v>
+        <v>452.7794706007702</v>
       </c>
       <c r="G17" t="n">
-        <v>206.0154217013159</v>
+        <v>209.3306939566701</v>
       </c>
       <c r="H17" t="n">
-        <v>79.02876209266884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5540,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>905.7800617647059</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>905.7800617647059</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>804.7498535525219</v>
+        <v>868.2731105711134</v>
       </c>
       <c r="V17" t="n">
-        <v>626.5412558834709</v>
+        <v>690.0645129020623</v>
       </c>
       <c r="W17" t="n">
-        <v>426.6268902878762</v>
+        <v>690.0645129020623</v>
       </c>
       <c r="X17" t="n">
-        <v>206.0154217013159</v>
+        <v>690.0645129020623</v>
       </c>
       <c r="Y17" t="n">
-        <v>206.0154217013159</v>
+        <v>452.7794706007702</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>356.9930248275979</v>
+        <v>290.4169668651192</v>
       </c>
       <c r="C18" t="n">
-        <v>335.3942852209904</v>
+        <v>115.9639375839922</v>
       </c>
       <c r="D18" t="n">
-        <v>335.3942852209904</v>
+        <v>115.9639375839922</v>
       </c>
       <c r="E18" t="n">
-        <v>304.5465265007123</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,49 +5595,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>897.4810975481575</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>876.918042673346</v>
       </c>
       <c r="T18" t="n">
-        <v>741.3075059945907</v>
+        <v>827.5857377066316</v>
       </c>
       <c r="U18" t="n">
-        <v>665.9381774054992</v>
+        <v>599.3621194430206</v>
       </c>
       <c r="V18" t="n">
-        <v>583.640358848276</v>
+        <v>517.0643008857974</v>
       </c>
       <c r="W18" t="n">
-        <v>482.2572917945939</v>
+        <v>415.6812338321153</v>
       </c>
       <c r="X18" t="n">
-        <v>427.2600812635807</v>
+        <v>360.684023301102</v>
       </c>
       <c r="Y18" t="n">
-        <v>372.3540721731463</v>
+        <v>305.7780142106677</v>
       </c>
     </row>
     <row r="19">
@@ -5674,22 +5674,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>59.95299904419601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>87.26712405190898</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>276.2676515541278</v>
+        <v>211.7555850633086</v>
       </c>
       <c r="N19" t="n">
-        <v>469.7709915195607</v>
+        <v>405.2589250287415</v>
       </c>
       <c r="O19" t="n">
-        <v>643.9227574644566</v>
+        <v>579.4106909736374</v>
       </c>
       <c r="P19" t="n">
-        <v>791.0410204466978</v>
+        <v>726.5289539558786</v>
       </c>
       <c r="Q19" t="n">
         <v>791.0410204466978</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>673.7347422320604</v>
+        <v>420.5315095001893</v>
       </c>
       <c r="C20" t="n">
-        <v>457.6265149661683</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>252.2151060339374</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>911.0197845333525</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>911.0197845333525</v>
+        <v>891.5621021910837</v>
       </c>
       <c r="U20" t="n">
-        <v>911.0197845333525</v>
+        <v>891.5621021910837</v>
       </c>
       <c r="V20" t="n">
-        <v>911.0197845333525</v>
+        <v>891.5621021910837</v>
       </c>
       <c r="W20" t="n">
-        <v>911.0197845333525</v>
+        <v>891.5621021910837</v>
       </c>
       <c r="X20" t="n">
-        <v>911.0197845333525</v>
+        <v>891.5621021910837</v>
       </c>
       <c r="Y20" t="n">
-        <v>673.7347422320604</v>
+        <v>654.2770598897915</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>346.6518956953907</v>
+        <v>214.92731523718</v>
       </c>
       <c r="C21" t="n">
-        <v>172.1988664142637</v>
+        <v>40.47428595605302</v>
       </c>
       <c r="D21" t="n">
-        <v>172.1988664142637</v>
+        <v>40.47428595605302</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>34.09112062511708</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>34.09112062511708</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5835,7 +5835,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
         <v>542.809531908403</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>943.4941006358247</v>
       </c>
       <c r="T21" t="n">
-        <v>730.9663768623835</v>
+        <v>894.1617956691102</v>
       </c>
       <c r="U21" t="n">
-        <v>655.5970482732921</v>
+        <v>665.9381774054993</v>
       </c>
       <c r="V21" t="n">
-        <v>573.2992297160689</v>
+        <v>583.6403588482762</v>
       </c>
       <c r="W21" t="n">
-        <v>471.9161626623868</v>
+        <v>340.1915822041761</v>
       </c>
       <c r="X21" t="n">
-        <v>416.9189521313735</v>
+        <v>285.1943716731628</v>
       </c>
       <c r="Y21" t="n">
-        <v>362.0129430409392</v>
+        <v>230.2883625827285</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>67.37453783817942</v>
+        <v>240.3906729021178</v>
       </c>
       <c r="C22" t="n">
-        <v>51.29264458479207</v>
+        <v>224.3087796487304</v>
       </c>
       <c r="D22" t="n">
-        <v>51.29264458479207</v>
+        <v>226.9919506706968</v>
       </c>
       <c r="E22" t="n">
-        <v>51.29264458479207</v>
+        <v>231.8348169605899</v>
       </c>
       <c r="F22" t="n">
-        <v>51.29264458479207</v>
+        <v>231.8348169605899</v>
       </c>
       <c r="G22" t="n">
-        <v>34.45907632147449</v>
+        <v>215.0012486972724</v>
       </c>
       <c r="H22" t="n">
-        <v>23.44753518039851</v>
+        <v>203.9897075561964</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>199.8233154860106</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2102164805012</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2102164805012</v>
       </c>
       <c r="L22" t="n">
-        <v>196.4077574279223</v>
+        <v>434.3368307982108</v>
       </c>
       <c r="M22" t="n">
-        <v>385.4082849301411</v>
+        <v>623.3373583004295</v>
       </c>
       <c r="N22" t="n">
-        <v>429.0991355855774</v>
+        <v>728.0875494026766</v>
       </c>
       <c r="O22" t="n">
-        <v>603.2509015304734</v>
+        <v>752.4268260375759</v>
       </c>
       <c r="P22" t="n">
-        <v>750.3691645127145</v>
+        <v>899.5450890198171</v>
       </c>
       <c r="Q22" t="n">
-        <v>791.0410204466978</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>764.8110764069047</v>
+        <v>937.8272114708432</v>
       </c>
       <c r="S22" t="n">
-        <v>691.3859741248866</v>
+        <v>864.4021091888251</v>
       </c>
       <c r="T22" t="n">
-        <v>613.9921936698289</v>
+        <v>787.0083287337674</v>
       </c>
       <c r="U22" t="n">
-        <v>477.6353425802162</v>
+        <v>650.6514776441547</v>
       </c>
       <c r="V22" t="n">
-        <v>375.8051440488489</v>
+        <v>548.8212791127874</v>
       </c>
       <c r="W22" t="n">
-        <v>239.2422636864079</v>
+        <v>412.2583987503463</v>
       </c>
       <c r="X22" t="n">
-        <v>164.1070024629101</v>
+        <v>337.1231375268485</v>
       </c>
       <c r="Y22" t="n">
-        <v>96.16871299389956</v>
+        <v>269.1848480578379</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>512.3074203092353</v>
+        <v>1141.997303486087</v>
       </c>
       <c r="C23" t="n">
-        <v>296.1991930433431</v>
+        <v>925.8890762201952</v>
       </c>
       <c r="D23" t="n">
-        <v>90.78778411111222</v>
+        <v>720.4776672879643</v>
       </c>
       <c r="E23" t="n">
-        <v>90.78778411111222</v>
+        <v>720.4776672879643</v>
       </c>
       <c r="F23" t="n">
-        <v>90.78778411111222</v>
+        <v>462.3460521728763</v>
       </c>
       <c r="G23" t="n">
-        <v>90.78778411111222</v>
+        <v>221.0897159751135</v>
       </c>
       <c r="H23" t="n">
-        <v>90.78778411111222</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I23" t="n">
         <v>31.0401651286561</v>
       </c>
       <c r="J23" t="n">
-        <v>167.6855683247911</v>
+        <v>169.0228579775863</v>
       </c>
       <c r="K23" t="n">
-        <v>270.7005742357135</v>
+        <v>272.0378638885087</v>
       </c>
       <c r="L23" t="n">
-        <v>450.7764258203721</v>
+        <v>452.1137154731673</v>
       </c>
       <c r="M23" t="n">
-        <v>817.5645423932729</v>
+        <v>806.231687622615</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.419064600512</v>
+        <v>1012.086209829854</v>
       </c>
       <c r="O23" t="n">
-        <v>1172.61401474316</v>
+        <v>1311.093649282499</v>
       </c>
       <c r="P23" t="n">
-        <v>1412.086559345208</v>
+        <v>1550.566193884546</v>
       </c>
       <c r="Q23" t="n">
-        <v>1552.008256432805</v>
+        <v>1550.566193884546</v>
       </c>
       <c r="R23" t="n">
         <v>1552.008256432805</v>
@@ -6023,16 +6023,16 @@
         <v>1320.205901155138</v>
       </c>
       <c r="V23" t="n">
-        <v>1203.94948158669</v>
+        <v>1141.997303486087</v>
       </c>
       <c r="W23" t="n">
-        <v>1203.94948158669</v>
+        <v>1141.997303486087</v>
       </c>
       <c r="X23" t="n">
-        <v>983.3380130001298</v>
+        <v>1141.997303486087</v>
       </c>
       <c r="Y23" t="n">
-        <v>746.0529706988376</v>
+        <v>1141.997303486087</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>554.2759498933677</v>
+        <v>232.3574376045744</v>
       </c>
       <c r="C24" t="n">
-        <v>532.6772102867603</v>
+        <v>210.758697997967</v>
       </c>
       <c r="D24" t="n">
-        <v>532.6772102867603</v>
+        <v>210.758697997967</v>
       </c>
       <c r="E24" t="n">
-        <v>373.4397552813048</v>
+        <v>177.5747231017711</v>
       </c>
       <c r="F24" t="n">
-        <v>373.4397552813048</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="G24" t="n">
-        <v>234.7089298639203</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H24" t="n">
-        <v>121.3397942714996</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I24" t="n">
         <v>31.0401651286561</v>
@@ -6090,28 +6090,28 @@
         <v>1552.008256432805</v>
       </c>
       <c r="R24" t="n">
-        <v>1552.008256432805</v>
+        <v>1450.838726985691</v>
       </c>
       <c r="S24" t="n">
-        <v>1378.590911883474</v>
+        <v>1430.275672110879</v>
       </c>
       <c r="T24" t="n">
-        <v>1176.40431724224</v>
+        <v>1228.089077469645</v>
       </c>
       <c r="U24" t="n">
-        <v>1016.075392145789</v>
+        <v>1152.719748880554</v>
       </c>
       <c r="V24" t="n">
-        <v>780.923283914046</v>
+        <v>917.5676406488112</v>
       </c>
       <c r="W24" t="n">
-        <v>679.5402168603639</v>
+        <v>663.3302839206096</v>
       </c>
       <c r="X24" t="n">
-        <v>624.5430063293506</v>
+        <v>455.4787837150768</v>
       </c>
       <c r="Y24" t="n">
-        <v>569.6369972389163</v>
+        <v>400.5727746246425</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>79.1335598566228</v>
+        <v>65.7618707774686</v>
       </c>
       <c r="C25" t="n">
-        <v>63.05166660323545</v>
+        <v>49.67997752408125</v>
       </c>
       <c r="D25" t="n">
-        <v>63.05166660323545</v>
+        <v>52.36314854604763</v>
       </c>
       <c r="E25" t="n">
-        <v>63.05166660323545</v>
+        <v>57.20601483594076</v>
       </c>
       <c r="F25" t="n">
         <v>63.05166660323545</v>
@@ -6145,52 +6145,52 @@
         <v>31.0401651286561</v>
       </c>
       <c r="J25" t="n">
-        <v>31.0401651286561</v>
+        <v>88.42706612314666</v>
       </c>
       <c r="K25" t="n">
-        <v>31.0401651286561</v>
+        <v>216.1927585255193</v>
       </c>
       <c r="L25" t="n">
-        <v>58.35429013636907</v>
+        <v>393.3193728432288</v>
       </c>
       <c r="M25" t="n">
-        <v>247.3548176385879</v>
+        <v>582.3199003454476</v>
       </c>
       <c r="N25" t="n">
-        <v>440.8581576040208</v>
+        <v>626.0107510008839</v>
       </c>
       <c r="O25" t="n">
-        <v>615.0099235489167</v>
+        <v>724.9162868951678</v>
       </c>
       <c r="P25" t="n">
-        <v>762.1281865311579</v>
+        <v>724.9162868951678</v>
       </c>
       <c r="Q25" t="n">
-        <v>802.8000424651411</v>
+        <v>789.428353385987</v>
       </c>
       <c r="R25" t="n">
-        <v>776.5700984253481</v>
+        <v>763.1984093461939</v>
       </c>
       <c r="S25" t="n">
-        <v>703.14499614333</v>
+        <v>689.7733070641758</v>
       </c>
       <c r="T25" t="n">
-        <v>625.7512156882723</v>
+        <v>612.3795266091181</v>
       </c>
       <c r="U25" t="n">
-        <v>489.3943645986596</v>
+        <v>476.0226755195054</v>
       </c>
       <c r="V25" t="n">
-        <v>387.5641660672923</v>
+        <v>374.1924769881381</v>
       </c>
       <c r="W25" t="n">
-        <v>251.0012857048512</v>
+        <v>237.629596625697</v>
       </c>
       <c r="X25" t="n">
-        <v>175.8660244813535</v>
+        <v>162.4943354021993</v>
       </c>
       <c r="Y25" t="n">
-        <v>107.9277350123429</v>
+        <v>94.55604593318874</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1058.660481868327</v>
+        <v>1055.624997570237</v>
       </c>
       <c r="C26" t="n">
-        <v>823.3456849601655</v>
+        <v>1055.624997570237</v>
       </c>
       <c r="D26" t="n">
-        <v>823.3456849601655</v>
+        <v>1055.624997570237</v>
       </c>
       <c r="E26" t="n">
-        <v>571.2051523941714</v>
+        <v>803.4844650042428</v>
       </c>
       <c r="F26" t="n">
-        <v>571.2051523941714</v>
+        <v>526.1462802468853</v>
       </c>
       <c r="G26" t="n">
-        <v>285.3551577646689</v>
+        <v>240.2962856173829</v>
       </c>
       <c r="H26" t="n">
-        <v>76.09903727594209</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I26" t="n">
         <v>31.0401651286561</v>
@@ -6227,19 +6227,19 @@
         <v>150.1984990711981</v>
       </c>
       <c r="K26" t="n">
-        <v>253.2135049821204</v>
+        <v>384.2016353857288</v>
       </c>
       <c r="L26" t="n">
         <v>564.2774869703874</v>
       </c>
       <c r="M26" t="n">
-        <v>781.2531142332915</v>
+        <v>855.2132602060492</v>
       </c>
       <c r="N26" t="n">
-        <v>1118.095766844139</v>
+        <v>1061.067782413289</v>
       </c>
       <c r="O26" t="n">
-        <v>1267.290716986787</v>
+        <v>1210.262732555937</v>
       </c>
       <c r="P26" t="n">
         <v>1430.910918251596</v>
@@ -6251,25 +6251,25 @@
         <v>1534.273029049752</v>
       </c>
       <c r="S26" t="n">
-        <v>1534.273029049752</v>
+        <v>1456.789365661553</v>
       </c>
       <c r="T26" t="n">
-        <v>1534.273029049752</v>
+        <v>1365.087742699731</v>
       </c>
       <c r="U26" t="n">
-        <v>1534.273029049752</v>
+        <v>1244.850964845278</v>
       </c>
       <c r="V26" t="n">
-        <v>1534.273029049752</v>
+        <v>1244.850964845278</v>
       </c>
       <c r="W26" t="n">
-        <v>1315.152093811889</v>
+        <v>1055.624997570237</v>
       </c>
       <c r="X26" t="n">
-        <v>1315.152093811889</v>
+        <v>1055.624997570237</v>
       </c>
       <c r="Y26" t="n">
-        <v>1058.660481868327</v>
+        <v>1055.624997570237</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>799.6845751197751</v>
+        <v>398.7414150230247</v>
       </c>
       <c r="C27" t="n">
-        <v>625.2315458386481</v>
+        <v>357.9361057741478</v>
       </c>
       <c r="D27" t="n">
-        <v>476.2971361773968</v>
+        <v>209.0016961128966</v>
       </c>
       <c r="E27" t="n">
-        <v>317.0596811719413</v>
+        <v>183.4119611396912</v>
       </c>
       <c r="F27" t="n">
         <v>170.5251231988263</v>
@@ -6327,28 +6327,28 @@
         <v>1552.008256432805</v>
       </c>
       <c r="R27" t="n">
-        <v>1552.008256432805</v>
+        <v>1450.838726985691</v>
       </c>
       <c r="S27" t="n">
-        <v>1512.238631915724</v>
+        <v>1411.06910246861</v>
       </c>
       <c r="T27" t="n">
-        <v>1443.69975730674</v>
+        <v>1342.530227859626</v>
       </c>
       <c r="U27" t="n">
-        <v>1349.123859075379</v>
+        <v>1114.306609596015</v>
       </c>
       <c r="V27" t="n">
-        <v>1247.619470875887</v>
+        <v>879.1545013642724</v>
       </c>
       <c r="W27" t="n">
-        <v>1127.029834179936</v>
+        <v>715.2731109490792</v>
       </c>
       <c r="X27" t="n">
-        <v>1052.826054006653</v>
+        <v>641.0693307757965</v>
       </c>
       <c r="Y27" t="n">
-        <v>967.8999121398431</v>
+        <v>566.9567520430927</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.3211696434738</v>
+        <v>727.6919233110034</v>
       </c>
       <c r="C28" t="n">
-        <v>128.032706747817</v>
+        <v>692.4034604153467</v>
       </c>
       <c r="D28" t="n">
-        <v>111.5637873677314</v>
+        <v>675.9345410352611</v>
       </c>
       <c r="E28" t="n">
-        <v>97.29841381758848</v>
+        <v>661.6691674851181</v>
       </c>
       <c r="F28" t="n">
-        <v>97.29841381758848</v>
+        <v>661.6691674851181</v>
       </c>
       <c r="G28" t="n">
-        <v>61.25827591200149</v>
+        <v>625.6290295795311</v>
       </c>
       <c r="H28" t="n">
-        <v>31.0401651286561</v>
+        <v>595.4109187961857</v>
       </c>
       <c r="I28" t="n">
-        <v>31.0401651286561</v>
+        <v>572.0379570837305</v>
       </c>
       <c r="J28" t="n">
-        <v>69.60270721675842</v>
+        <v>610.6004991718328</v>
       </c>
       <c r="K28" t="n">
-        <v>178.5440407127427</v>
+        <v>719.5418326678172</v>
       </c>
       <c r="L28" t="n">
-        <v>336.8462961240641</v>
+        <v>877.8440880791385</v>
       </c>
       <c r="M28" t="n">
-        <v>507.0224647198946</v>
+        <v>1048.020256674969</v>
       </c>
       <c r="N28" t="n">
-        <v>681.7014457789393</v>
+        <v>1222.699237734014</v>
       </c>
       <c r="O28" t="n">
-        <v>837.0288528174469</v>
+        <v>1378.026644772521</v>
       </c>
       <c r="P28" t="n">
-        <v>965.3227568932998</v>
+        <v>1506.320548848374</v>
       </c>
       <c r="Q28" t="n">
-        <v>1011.010464477731</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="R28" t="n">
-        <v>965.5739507956682</v>
+        <v>1506.571742750742</v>
       </c>
       <c r="S28" t="n">
-        <v>872.9422788713807</v>
+        <v>1413.940070826455</v>
       </c>
       <c r="T28" t="n">
-        <v>776.3419287740536</v>
+        <v>1317.339720729128</v>
       </c>
       <c r="U28" t="n">
-        <v>669.6148225968576</v>
+        <v>1161.776299997246</v>
       </c>
       <c r="V28" t="n">
-        <v>548.5780544232209</v>
+        <v>1040.739531823609</v>
       </c>
       <c r="W28" t="n">
-        <v>392.8086044185105</v>
+        <v>957.1793580860401</v>
       </c>
       <c r="X28" t="n">
-        <v>298.4667735527433</v>
+        <v>862.8375272202729</v>
       </c>
       <c r="Y28" t="n">
-        <v>211.3219144414633</v>
+        <v>775.692668108993</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1067.3466544714</v>
+        <v>653.4995232295003</v>
       </c>
       <c r="C29" t="n">
-        <v>835.6161124428065</v>
+        <v>653.4995232295003</v>
       </c>
       <c r="D29" t="n">
-        <v>835.6161124428065</v>
+        <v>518.9777704877497</v>
       </c>
       <c r="E29" t="n">
-        <v>587.0598347563803</v>
+        <v>518.9777704877497</v>
       </c>
       <c r="F29" t="n">
-        <v>313.3059048785907</v>
+        <v>518.9777704877497</v>
       </c>
       <c r="G29" t="n">
-        <v>31.0401651286561</v>
+        <v>236.7120307378151</v>
       </c>
       <c r="H29" t="n">
         <v>31.0401651286561</v>
@@ -6464,49 +6464,49 @@
         <v>153.7114272786625</v>
       </c>
       <c r="K29" t="n">
-        <v>391.2274918006577</v>
+        <v>316.6348663324848</v>
       </c>
       <c r="L29" t="n">
-        <v>571.3033433853163</v>
+        <v>496.7107179171433</v>
       </c>
       <c r="M29" t="n">
-        <v>788.2789706482205</v>
+        <v>848.1874037911202</v>
       </c>
       <c r="N29" t="n">
-        <v>1128.634551466533</v>
+        <v>1054.04192599836</v>
       </c>
       <c r="O29" t="n">
-        <v>1277.829501609181</v>
+        <v>1203.236876141008</v>
       </c>
       <c r="P29" t="n">
-        <v>1427.397990044131</v>
+        <v>1427.397990044132</v>
       </c>
       <c r="Q29" t="n">
         <v>1552.008256432805</v>
       </c>
       <c r="R29" t="n">
-        <v>1537.85728392932</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="S29" t="n">
-        <v>1537.85728392932</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="T29" t="n">
-        <v>1537.85728392932</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="U29" t="n">
-        <v>1537.85728392932</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="V29" t="n">
-        <v>1537.85728392932</v>
+        <v>1358.177344001052</v>
       </c>
       <c r="W29" t="n">
-        <v>1322.320603571024</v>
+        <v>1142.640663642756</v>
       </c>
       <c r="X29" t="n">
-        <v>1322.320603571024</v>
+        <v>906.4068802934941</v>
       </c>
       <c r="Y29" t="n">
-        <v>1069.413246507031</v>
+        <v>653.4995232295003</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>500.6036533239559</v>
+        <v>591.6574151195854</v>
       </c>
       <c r="C30" t="n">
-        <v>326.1506240428289</v>
+        <v>554.4363607502763</v>
       </c>
       <c r="D30" t="n">
-        <v>314.4481892933957</v>
+        <v>542.733926000843</v>
       </c>
       <c r="E30" t="n">
-        <v>155.2107342879402</v>
+        <v>383.4964709953875</v>
       </c>
       <c r="F30" t="n">
-        <v>145.9081512266432</v>
+        <v>236.9619130222725</v>
       </c>
       <c r="G30" t="n">
-        <v>144.4093007210768</v>
+        <v>235.463062516706</v>
       </c>
       <c r="H30" t="n">
-        <v>31.0401651286561</v>
+        <v>122.0939269242853</v>
       </c>
       <c r="I30" t="n">
-        <v>31.0401651286561</v>
+        <v>31.79429778144181</v>
       </c>
       <c r="J30" t="n">
         <v>31.0401651286561</v>
@@ -6564,28 +6564,28 @@
         <v>1552.008256432805</v>
       </c>
       <c r="R30" t="n">
-        <v>1552.008256432805</v>
+        <v>1450.838726985691</v>
       </c>
       <c r="S30" t="n">
-        <v>1378.590911883474</v>
+        <v>1414.653357348177</v>
       </c>
       <c r="T30" t="n">
-        <v>1176.40431724224</v>
+        <v>1212.466762706943</v>
       </c>
       <c r="U30" t="n">
-        <v>1024.892354627183</v>
+        <v>1121.47511935515</v>
       </c>
       <c r="V30" t="n">
-        <v>926.972221307258</v>
+        <v>1023.554986035226</v>
       </c>
       <c r="W30" t="n">
-        <v>809.9668394908745</v>
+        <v>769.3176293070239</v>
       </c>
       <c r="X30" t="n">
-        <v>739.3473141971597</v>
+        <v>693.1691010809714</v>
       </c>
       <c r="Y30" t="n">
-        <v>531.5870154322058</v>
+        <v>622.6407772278354</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>174.8465746646141</v>
+        <v>687.7409409599727</v>
       </c>
       <c r="C31" t="n">
-        <v>143.1423666485252</v>
+        <v>656.0367329438837</v>
       </c>
       <c r="D31" t="n">
-        <v>130.2577021480075</v>
+        <v>643.152068443366</v>
       </c>
       <c r="E31" t="n">
-        <v>119.5765834774324</v>
+        <v>632.4709497727908</v>
       </c>
       <c r="F31" t="n">
-        <v>109.9186108913401</v>
+        <v>622.8129771866984</v>
       </c>
       <c r="G31" t="n">
-        <v>77.46272786532086</v>
+        <v>590.3570941606795</v>
       </c>
       <c r="H31" t="n">
-        <v>50.82887196154341</v>
+        <v>563.7232382569021</v>
       </c>
       <c r="I31" t="n">
-        <v>31.0401651286561</v>
+        <v>543.9345314240145</v>
       </c>
       <c r="J31" t="n">
-        <v>73.11563542422292</v>
+        <v>586.0100017195812</v>
       </c>
       <c r="K31" t="n">
-        <v>185.5698971276718</v>
+        <v>698.46426342303</v>
       </c>
       <c r="L31" t="n">
-        <v>347.3850807464569</v>
+        <v>860.279447041816</v>
       </c>
       <c r="M31" t="n">
-        <v>521.0741775497522</v>
+        <v>1033.968543845111</v>
       </c>
       <c r="N31" t="n">
-        <v>699.2660868162612</v>
+        <v>1212.16045311162</v>
       </c>
       <c r="O31" t="n">
-        <v>858.1064220622334</v>
+        <v>1371.000788357592</v>
       </c>
       <c r="P31" t="n">
-        <v>989.9132543455507</v>
+        <v>1502.80762064091</v>
       </c>
       <c r="Q31" t="n">
-        <v>1039.113890137446</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="R31" t="n">
-        <v>997.2616313349508</v>
+        <v>1510.15599763031</v>
       </c>
       <c r="S31" t="n">
-        <v>908.2142142902314</v>
+        <v>1421.108580585591</v>
       </c>
       <c r="T31" t="n">
-        <v>815.1981190724723</v>
+        <v>1328.092485367831</v>
       </c>
       <c r="U31" t="n">
-        <v>663.2189532201583</v>
+        <v>1176.113319515518</v>
       </c>
       <c r="V31" t="n">
-        <v>545.7664399260896</v>
+        <v>1058.660806221449</v>
       </c>
       <c r="W31" t="n">
-        <v>393.5812448009472</v>
+        <v>906.4756110963062</v>
       </c>
       <c r="X31" t="n">
-        <v>302.8236688147479</v>
+        <v>815.7180351101066</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.2630645830357</v>
+        <v>732.1574308783945</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>821.7348613356276</v>
+        <v>816.1833435958357</v>
       </c>
       <c r="C32" t="n">
-        <v>821.7348613356276</v>
+        <v>672.5701696494962</v>
       </c>
       <c r="D32" t="n">
-        <v>688.8185057229491</v>
+        <v>571.2640081960442</v>
       </c>
       <c r="E32" t="n">
-        <v>528.3795961187769</v>
+        <v>410.8250985918721</v>
       </c>
       <c r="F32" t="n">
-        <v>342.7430343232415</v>
+        <v>225.1885367963366</v>
       </c>
       <c r="G32" t="n">
-        <v>148.594662655561</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H32" t="n">
         <v>31.0401651286561</v>
       </c>
       <c r="I32" t="n">
-        <v>43.53392552244429</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="J32" t="n">
-        <v>252.5690201298679</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="K32" t="n">
-        <v>355.5840260407903</v>
+        <v>134.0551710395785</v>
       </c>
       <c r="L32" t="n">
-        <v>592.919516197013</v>
+        <v>314.1310226242371</v>
       </c>
       <c r="M32" t="n">
-        <v>809.8951434599171</v>
+        <v>665.5689466538865</v>
       </c>
       <c r="N32" t="n">
-        <v>1015.749665667156</v>
+        <v>871.4234688611259</v>
       </c>
       <c r="O32" t="n">
-        <v>1164.944615809804</v>
+        <v>1241.483310072264</v>
       </c>
       <c r="P32" t="n">
-        <v>1254.604671101855</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="Q32" t="n">
-        <v>1465.578769947946</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="R32" t="n">
-        <v>1538.073234254698</v>
+        <v>1552.008256432805</v>
       </c>
       <c r="S32" t="n">
         <v>1552.008256432805</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>627.7883273216962</v>
+        <v>354.4276040710344</v>
       </c>
       <c r="C33" t="n">
-        <v>453.3352980405692</v>
+        <v>179.9745747899074</v>
       </c>
       <c r="D33" t="n">
-        <v>304.400888379318</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="E33" t="n">
-        <v>145.1634333738625</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="F33" t="n">
-        <v>145.1634333738625</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="G33" t="n">
-        <v>145.1634333738625</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H33" t="n">
-        <v>31.79429778144181</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I33" t="n">
-        <v>31.79429778144181</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="J33" t="n">
         <v>31.0401651286561</v>
@@ -6813,16 +6813,16 @@
         <v>1323.784638169194</v>
       </c>
       <c r="V33" t="n">
-        <v>1088.632529937451</v>
+        <v>1192.492096789791</v>
       </c>
       <c r="W33" t="n">
-        <v>834.3951732092498</v>
+        <v>938.254740061589</v>
       </c>
       <c r="X33" t="n">
-        <v>796.0036643417643</v>
+        <v>730.4032398560562</v>
       </c>
       <c r="Y33" t="n">
-        <v>796.0036643417643</v>
+        <v>522.6429410911023</v>
       </c>
     </row>
     <row r="34">
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.24162866506484</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="C34" t="n">
-        <v>62.24162866506484</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="D34" t="n">
-        <v>62.24162866506484</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="E34" t="n">
-        <v>62.24162866506484</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="F34" t="n">
-        <v>62.24162866506484</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="G34" t="n">
-        <v>62.24162866506484</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="H34" t="n">
-        <v>62.24162866506484</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="I34" t="n">
-        <v>62.24162866506484</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="J34" t="n">
-        <v>62.24162866506484</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="K34" t="n">
-        <v>62.24162866506484</v>
+        <v>31.0401651286561</v>
       </c>
       <c r="L34" t="n">
-        <v>89.55575367277781</v>
+        <v>58.35429013636907</v>
       </c>
       <c r="M34" t="n">
-        <v>128.743791865</v>
+        <v>97.54232832859125</v>
       </c>
       <c r="N34" t="n">
-        <v>172.4346425204363</v>
+        <v>141.2331789840276</v>
       </c>
       <c r="O34" t="n">
-        <v>196.7739191553356</v>
+        <v>165.5724556189269</v>
       </c>
       <c r="P34" t="n">
-        <v>196.7739191553356</v>
+        <v>165.5724556189269</v>
       </c>
       <c r="Q34" t="n">
         <v>196.7739191553356</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>651.1507512618888</v>
+        <v>333.9457870231655</v>
       </c>
       <c r="C35" t="n">
-        <v>507.5375773155492</v>
+        <v>322.472202432653</v>
       </c>
       <c r="D35" t="n">
-        <v>507.5375773155492</v>
+        <v>322.472202432653</v>
       </c>
       <c r="E35" t="n">
-        <v>507.5375773155492</v>
+        <v>322.472202432653</v>
       </c>
       <c r="F35" t="n">
-        <v>321.9010155200137</v>
+        <v>136.8356406371176</v>
       </c>
       <c r="G35" t="n">
-        <v>127.7526438523332</v>
+        <v>136.8356406371176</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6968,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>935.5220006180048</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>935.5220006180048</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>808.1026883419627</v>
       </c>
       <c r="X35" t="n">
-        <v>815.9407402436284</v>
+        <v>659.9862730749549</v>
       </c>
       <c r="Y35" t="n">
-        <v>651.1507512618888</v>
+        <v>495.1962840932152</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>500.260318022696</v>
+        <v>303.578078261085</v>
       </c>
       <c r="C36" t="n">
-        <v>325.807288741569</v>
+        <v>303.578078261085</v>
       </c>
       <c r="D36" t="n">
-        <v>325.807288741569</v>
+        <v>303.578078261085</v>
       </c>
       <c r="E36" t="n">
         <v>166.5698337361135</v>
@@ -7023,7 +7023,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
         <v>725.4530095217538</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>758.9962855998633</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>749.1935203621927</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>720.3055066280631</v>
+        <v>471.793415281153</v>
       </c>
       <c r="X36" t="n">
-        <v>720.3055066280631</v>
+        <v>471.793415281153</v>
       </c>
       <c r="Y36" t="n">
-        <v>668.4756550427639</v>
+        <v>471.793415281153</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>50.48260664662145</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
         <v>50.48260664662145</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>836.0345157366189</v>
+        <v>548.9766988240801</v>
       </c>
       <c r="C38" t="n">
-        <v>692.4213417902793</v>
+        <v>548.9766988240801</v>
       </c>
       <c r="D38" t="n">
-        <v>559.5049861776008</v>
+        <v>416.0603432114017</v>
       </c>
       <c r="E38" t="n">
-        <v>399.0660765734287</v>
+        <v>255.6214336072296</v>
       </c>
       <c r="F38" t="n">
         <v>213.4295147778932</v>
@@ -7208,16 +7208,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>858.3436111611377</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>858.3436111611377</v>
       </c>
       <c r="X38" t="n">
-        <v>836.0345157366189</v>
+        <v>710.2271958941299</v>
       </c>
       <c r="Y38" t="n">
-        <v>836.0345157366189</v>
+        <v>710.2271958941299</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>194.4883050441255</v>
+        <v>321.0759210496242</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>321.0759210496242</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>256.869462878957</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7257,19 +7257,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>961.1828802410973</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>726.0307720093547</v>
       </c>
       <c r="W39" t="n">
-        <v>194.4883050441255</v>
+        <v>697.1427582752251</v>
       </c>
       <c r="X39" t="n">
-        <v>194.4883050441255</v>
+        <v>489.2912580696923</v>
       </c>
       <c r="Y39" t="n">
-        <v>194.4883050441255</v>
+        <v>489.2912580696923</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>50.48260664662145</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>50.48260664662145</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>50.48260664662145</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>50.48260664662145</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>50.48260664662145</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>50.48260664662145</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>50.48260664662145</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>77.79673165433442</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>116.9847698465566</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>160.6756205019929</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>185.0148971368922</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>185.0148971368922</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>185.0148971368922</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>185.0148971368922</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>184.0848481744266</v>
+        <v>963.1271065481707</v>
       </c>
       <c r="T40" t="n">
-        <v>179.1861210389214</v>
+        <v>958.2283794126655</v>
       </c>
       <c r="U40" t="n">
-        <v>115.3243232688613</v>
+        <v>894.3665816426054</v>
       </c>
       <c r="V40" t="n">
-        <v>85.98917805704652</v>
+        <v>865.0314364307906</v>
       </c>
       <c r="W40" t="n">
-        <v>21.92135101415797</v>
+        <v>800.963609387902</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>798.3234014839568</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>798.3234014839568</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>690.6991564163864</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="C41" t="n">
-        <v>447.2503797722863</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="D41" t="n">
-        <v>343.9932886969984</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="E41" t="n">
-        <v>343.9932886969984</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>343.9932886969984</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>343.9932886969984</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>116.4862499716049</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>928.071009890917</v>
+        <v>854.1046143121476</v>
       </c>
       <c r="U41" t="n">
-        <v>928.071009890917</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="V41" t="n">
-        <v>928.071009890917</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="W41" t="n">
-        <v>690.6991564163864</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="X41" t="n">
-        <v>690.6991564163864</v>
+        <v>715.6169182210276</v>
       </c>
       <c r="Y41" t="n">
-        <v>690.6991564163864</v>
+        <v>715.6169182210276</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>146.6892249039151</v>
+        <v>230.149562615232</v>
       </c>
       <c r="C43" t="n">
-        <v>146.6892249039151</v>
+        <v>176.6101814829085</v>
       </c>
       <c r="D43" t="n">
-        <v>146.6892249039151</v>
+        <v>141.8903438661563</v>
       </c>
       <c r="E43" t="n">
-        <v>146.6892249039151</v>
+        <v>109.3740520793467</v>
       </c>
       <c r="F43" t="n">
-        <v>115.1960792015882</v>
+        <v>109.3740520793467</v>
       </c>
       <c r="G43" t="n">
-        <v>60.90502305933459</v>
+        <v>109.3740520793467</v>
       </c>
       <c r="H43" t="n">
         <v>60.90502305933459</v>
@@ -7594,25 +7594,25 @@
         <v>856.1496427492314</v>
       </c>
       <c r="S43" t="n">
-        <v>748.6628868581383</v>
+        <v>745.2670525882772</v>
       </c>
       <c r="T43" t="n">
-        <v>633.8116185241445</v>
+        <v>630.4157842542834</v>
       </c>
       <c r="U43" t="n">
-        <v>459.9972795555957</v>
+        <v>456.6014452857347</v>
       </c>
       <c r="V43" t="n">
-        <v>320.7095931452923</v>
+        <v>401.7970029978349</v>
       </c>
       <c r="W43" t="n">
-        <v>146.6892249039151</v>
+        <v>401.7970029978349</v>
       </c>
       <c r="X43" t="n">
-        <v>146.6892249039151</v>
+        <v>401.7970029978349</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6892249039151</v>
+        <v>296.4012256498882</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>425.560230614066</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>425.560230614066</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>425.560230614066</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>425.560230614066</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>912.4577839022662</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>912.4577839022662</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>912.4577839022662</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>912.4577839022662</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>912.4577839022662</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>669.0090072581661</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>425.560230614066</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>425.560230614066</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>288.2535414138826</v>
+        <v>259.932437497941</v>
       </c>
       <c r="C45" t="n">
-        <v>213.5840879396883</v>
+        <v>185.2629840237467</v>
       </c>
       <c r="D45" t="n">
-        <v>164.4332540853697</v>
+        <v>136.1121501694282</v>
       </c>
       <c r="E45" t="n">
-        <v>104.9793748868469</v>
+        <v>76.65827097090542</v>
       </c>
       <c r="F45" t="n">
-        <v>58.22839272066452</v>
+        <v>58.22839272066447</v>
       </c>
       <c r="G45" t="n">
         <v>19.28114311021272</v>
@@ -7734,13 +7734,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>962.6712018704546</v>
       </c>
       <c r="S45" t="n">
-        <v>890.4233867682378</v>
+        <v>962.6712018704546</v>
       </c>
       <c r="T45" t="n">
-        <v>890.4233867682378</v>
+        <v>962.6712018704546</v>
       </c>
       <c r="U45" t="n">
-        <v>761.9833443115596</v>
+        <v>834.2311594137764</v>
       </c>
       <c r="V45" t="n">
-        <v>727.1837309049082</v>
+        <v>698.8626269889664</v>
       </c>
       <c r="W45" t="n">
-        <v>572.7299499836392</v>
+        <v>544.4088460676976</v>
       </c>
       <c r="X45" t="n">
-        <v>464.6620255850391</v>
+        <v>436.3409216690975</v>
       </c>
       <c r="Y45" t="n">
-        <v>356.6853026270179</v>
+        <v>328.3641987110763</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>89.18542524111717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>89.18542524111717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>89.18542524111717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>89.18542524111717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>89.18542524111717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7804,52 +7804,52 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>24.6534374430814</v>
+        <v>24.65343744308145</v>
       </c>
       <c r="K46" t="n">
-        <v>100.4045231838321</v>
+        <v>100.4045231838322</v>
       </c>
       <c r="L46" t="n">
-        <v>225.5165308399198</v>
+        <v>225.5165308399199</v>
       </c>
       <c r="M46" t="n">
-        <v>362.5024516805167</v>
+        <v>362.5024516805169</v>
       </c>
       <c r="N46" t="n">
-        <v>503.9911849843278</v>
+        <v>503.9911849843279</v>
       </c>
       <c r="O46" t="n">
-        <v>626.1283442676017</v>
+        <v>626.128344267602</v>
       </c>
       <c r="P46" t="n">
-        <v>721.232000588221</v>
+        <v>721.2320005882212</v>
       </c>
       <c r="Q46" t="n">
-        <v>733.7294604174183</v>
+        <v>733.7294604174185</v>
       </c>
       <c r="R46" t="n">
-        <v>733.7294604174183</v>
+        <v>654.4288025100386</v>
       </c>
       <c r="S46" t="n">
-        <v>733.7294604174183</v>
+        <v>647.5572807251222</v>
       </c>
       <c r="T46" t="n">
-        <v>733.7294604174183</v>
+        <v>647.5572807251222</v>
       </c>
       <c r="U46" t="n">
-        <v>544.3018954602188</v>
+        <v>458.1297157679226</v>
       </c>
       <c r="V46" t="n">
-        <v>389.4009830612646</v>
+        <v>458.1297157679226</v>
       </c>
       <c r="W46" t="n">
-        <v>199.7673888312367</v>
+        <v>268.4961215378947</v>
       </c>
       <c r="X46" t="n">
-        <v>89.18542524111717</v>
+        <v>140.2901464468101</v>
       </c>
       <c r="Y46" t="n">
-        <v>89.18542524111717</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M2" t="n">
-        <v>245.0306783175538</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>245.4009489368218</v>
       </c>
       <c r="P2" t="n">
-        <v>246.5357332704046</v>
+        <v>245.9174408455507</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>153.144176489494</v>
+        <v>152.5258840646401</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>157.4367714371534</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>146.6444495984684</v>
@@ -8073,10 +8073,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.6662191763026</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>234.7742961352617</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N5" t="n">
         <v>244.715801111726</v>
       </c>
       <c r="O5" t="n">
-        <v>245.4009489368218</v>
+        <v>244.7826565119678</v>
       </c>
       <c r="P5" t="n">
         <v>246.5357332704046</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>153.144176489494</v>
+        <v>152.5258840646401</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
@@ -8304,7 +8304,7 @@
         <v>157.4367714371534</v>
       </c>
       <c r="N6" t="n">
-        <v>146.0261571736144</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
@@ -8377,7 +8377,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1874137963733</v>
+        <v>149.5691213715194</v>
       </c>
       <c r="M7" t="n">
         <v>154.2285214627401</v>
@@ -8386,7 +8386,7 @@
         <v>142.9882819803682</v>
       </c>
       <c r="O7" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>234.7742961352617</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
         <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>246.5357332704046</v>
+        <v>245.9174408455507</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L9" t="n">
-        <v>153.8571172950092</v>
+        <v>153.2388248701553</v>
       </c>
       <c r="M9" t="n">
         <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
-        <v>146.0261571736144</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>157.8989819595795</v>
@@ -8617,10 +8617,10 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
-        <v>153.6102290378862</v>
+        <v>154.2285214627401</v>
       </c>
       <c r="N10" t="n">
-        <v>142.9882819803682</v>
+        <v>142.3699895555143</v>
       </c>
       <c r="O10" t="n">
         <v>153.7592759669778</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,16 +9015,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,10 +9483,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -10671,10 +10671,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11382,16 +11382,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.8663219311301</v>
+        <v>13.85203305347108</v>
       </c>
       <c r="C11" t="n">
-        <v>235.0613895321074</v>
+        <v>237.4053720386571</v>
       </c>
       <c r="D11" t="n">
-        <v>226.8155218883325</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>254.0628503399113</v>
@@ -23273,7 +23273,7 @@
         <v>287.4352177827846</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>211.6072823834167</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,25 +23303,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>22.00159820879924</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>81.1525498538949</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>95.22832983178091</v>
       </c>
       <c r="U11" t="n">
         <v>123.4781331754861</v>
       </c>
       <c r="V11" t="n">
-        <v>199.8847387377845</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>221.3734489850626</v>
       </c>
       <c r="X11" t="n">
-        <v>0.8492920684595333</v>
+        <v>78.85984622032996</v>
       </c>
       <c r="Y11" t="n">
         <v>258.3704189237031</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>37.36209240031796</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>39.37930136627739</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>20.74795328586191</v>
       </c>
       <c r="E13" t="n">
         <v>18.56644291421873</v>
       </c>
       <c r="F13" t="n">
-        <v>17.5535282905808</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>40.12345962610831</v>
       </c>
       <c r="H13" t="n">
         <v>34.35965277508913</v>
       </c>
       <c r="I13" t="n">
-        <v>23.91020008336291</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.14907830462181</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>242.9576405331381</v>
+        <v>1.943351655479006</v>
       </c>
       <c r="C14" t="n">
-        <v>225.496690640665</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>214.9068404903404</v>
@@ -23510,10 +23510,10 @@
         <v>275.5265363847925</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>199.6986009854246</v>
       </c>
       <c r="I14" t="n">
-        <v>70.6996884400634</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>10.09291681080717</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>83.31964843378884</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>111.569451777494</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>99.15015783659724</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>209.4647675870705</v>
       </c>
       <c r="X14" t="n">
-        <v>229.9548995481265</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>172.4058798287652</v>
+        <v>246.4617375257111</v>
       </c>
     </row>
     <row r="15">
@@ -23744,13 +23744,13 @@
         <v>255.5502989639371</v>
       </c>
       <c r="G17" t="n">
-        <v>263.9769907373607</v>
+        <v>22.96270185970161</v>
       </c>
       <c r="H17" t="n">
-        <v>62.43226232543219</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>59.15014279263156</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23780,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.69432280847099</v>
       </c>
       <c r="T17" t="n">
         <v>71.770102786357</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>5.193701639934574</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>197.9152219396387</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>218.4053539006947</v>
       </c>
       <c r="Y17" t="n">
-        <v>234.9121918782792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>231.4080948857062</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>57.72357114481551</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>203.3572948429086</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>230.6046232944874</v>
       </c>
       <c r="F20" t="n">
         <v>255.5502989639371</v>
       </c>
       <c r="G20" t="n">
-        <v>263.9769907373607</v>
+        <v>22.96270185970161</v>
       </c>
       <c r="H20" t="n">
         <v>188.1490553379928</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>5.187325540960153</v>
+        <v>57.69432280847099</v>
       </c>
       <c r="T20" t="n">
-        <v>71.770102786357</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>100.0199061300621</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>231.4080948857062</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24215,16 +24215,16 @@
         <v>230.6046232944874</v>
       </c>
       <c r="F23" t="n">
-        <v>255.5502989639371</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>263.9769907373607</v>
+        <v>25.13321790157545</v>
       </c>
       <c r="H23" t="n">
-        <v>188.1490553379928</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>59.15014279263156</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,16 +24263,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>61.33265631959671</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>197.9152219396387</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>218.4053539006947</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>234.9121918782792</v>
       </c>
     </row>
     <row r="24">
@@ -24443,7 +24443,7 @@
         <v>250.4225988315529</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>232.9616489390799</v>
       </c>
       <c r="D26" t="n">
         <v>222.3717987887553</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>274.5648029097838</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>33.55636331266513</v>
+        <v>78.16464673847827</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24491,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>76.7088267543177</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>90.78460673220371</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>119.0344100759089</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>195.4410156382073</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>29.59601828319495</v>
       </c>
       <c r="X26" t="n">
         <v>237.4198578465414</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>253.9266958241259</v>
       </c>
     </row>
     <row r="27">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>23.13923209533064</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>48.34795140913921</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>71.48718350447038</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>244.8282603855065</v>
+        <v>246.8741865007808</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>229.4132366083078</v>
       </c>
       <c r="D29" t="n">
-        <v>218.8233864579831</v>
+        <v>85.64685124365013</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>246.070714909562</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>271.0163905790117</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>203.6151469530673</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.61623440770606</v>
+        <v>74.61623440770614</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>14.00946277844992</v>
       </c>
       <c r="S29" t="n">
-        <v>73.16041442354549</v>
+        <v>73.16041442354557</v>
       </c>
       <c r="T29" t="n">
-        <v>87.2361944014315</v>
+        <v>87.23619440143159</v>
       </c>
       <c r="U29" t="n">
-        <v>115.4859977451366</v>
+        <v>115.4859977451367</v>
       </c>
       <c r="V29" t="n">
-        <v>191.8926033074351</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>233.8714455157692</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.496002562393926</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>142.1770422068762</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>31.29409221763414</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>116.3789525516358</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>159.6379920993492</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>130.8181934622689</v>
       </c>
       <c r="D35" t="n">
         <v>131.5871920565516</v>
@@ -25166,10 +25166,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>192.2068879510037</v>
       </c>
       <c r="H35" t="n">
-        <v>8.992166816936503</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25208,13 +25208,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>28.24980334370514</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>104.6564089060035</v>
       </c>
       <c r="W35" t="n">
-        <v>126.1451191532817</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>159.6379920993492</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>142.1770422068762</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25400,7 +25400,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>142.0101965365371</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25448,13 +25448,13 @@
         <v>28.24980334370514</v>
       </c>
       <c r="V38" t="n">
-        <v>104.6564089060035</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>126.1451191532817</v>
       </c>
       <c r="X38" t="n">
-        <v>19.89283773806055</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>163.1420890919222</v>
@@ -25628,25 +25628,25 @@
         <v>268.4910078858529</v>
       </c>
       <c r="C41" t="n">
-        <v>10.01576911572084</v>
+        <v>251.0300579933799</v>
       </c>
       <c r="D41" t="n">
-        <v>138.2156876785203</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E41" t="n">
-        <v>267.6875362946341</v>
+        <v>60.34369669024554</v>
       </c>
       <c r="F41" t="n">
-        <v>292.6332119640838</v>
+        <v>51.61892308642473</v>
       </c>
       <c r="G41" t="n">
-        <v>301.0599037375074</v>
+        <v>60.04561485984834</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>96.23305579277827</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,22 +25673,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>35.62628416352204</v>
       </c>
       <c r="S41" t="n">
         <v>94.7772358086177</v>
       </c>
       <c r="T41" t="n">
-        <v>108.8530157865037</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>137.1028191302088</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>213.5094246925073</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X41" t="n">
         <v>255.4882669008414</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>53.0039873210002</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>31.17821424530361</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>53.74814558083112</v>
       </c>
       <c r="H43" t="n">
-        <v>47.98433872981194</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>63.05055759954185</v>
       </c>
       <c r="S43" t="n">
-        <v>3.361875927162529</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>83.63841168117955</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>172.2801645589633</v>
       </c>
       <c r="X43" t="n">
         <v>111.4668216114095</v>
       </c>
       <c r="Y43" t="n">
-        <v>104.3418195744672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>283.9481016146172</v>
+        <v>42.93381273695809</v>
       </c>
       <c r="C44" t="n">
         <v>266.4871517221442</v>
@@ -25871,19 +25871,19 @@
         <v>255.8973015718196</v>
       </c>
       <c r="E44" t="n">
-        <v>283.1446300233984</v>
+        <v>283.1446300233983</v>
       </c>
       <c r="F44" t="n">
-        <v>146.8882979416924</v>
+        <v>67.07601681518895</v>
       </c>
       <c r="G44" t="n">
-        <v>75.50270858861262</v>
+        <v>316.5169974662716</v>
       </c>
       <c r="H44" t="n">
-        <v>240.6890620669038</v>
+        <v>240.6890620669037</v>
       </c>
       <c r="I44" t="n">
-        <v>111.6901495215426</v>
+        <v>111.6901495215425</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.08337789228628</v>
       </c>
       <c r="S44" t="n">
-        <v>110.234329537382</v>
+        <v>110.2343295373819</v>
       </c>
       <c r="T44" t="n">
         <v>124.310109515268</v>
@@ -25925,13 +25925,13 @@
         <v>228.9665184212715</v>
       </c>
       <c r="W44" t="n">
-        <v>9.440939790890582</v>
+        <v>250.4552286685496</v>
       </c>
       <c r="X44" t="n">
-        <v>29.9310717519466</v>
+        <v>29.93107175194655</v>
       </c>
       <c r="Y44" t="n">
-        <v>287.4521986071902</v>
+        <v>75.1668129637481</v>
       </c>
     </row>
     <row r="45">
@@ -25953,13 +25953,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>28.03789287678194</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>13.4497041876331</v>
+        <v>13.44970418763306</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.372094103779773</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>72.89743105497442</v>
       </c>
       <c r="T45" t="n">
         <v>101.3789886459582</v>
@@ -26001,7 +26001,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>99.56322982797704</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.04624013307394</v>
+        <v>81.04624013307389</v>
       </c>
       <c r="C46" t="n">
-        <v>68.46108104976447</v>
+        <v>68.46108104976443</v>
       </c>
       <c r="D46" t="n">
-        <v>49.829732969349</v>
+        <v>49.82973296934895</v>
       </c>
       <c r="E46" t="n">
-        <v>47.64822259770581</v>
+        <v>47.64822259770577</v>
       </c>
       <c r="F46" t="n">
-        <v>46.63530797406789</v>
+        <v>46.63530797406784</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>69.20523930959536</v>
       </c>
       <c r="H46" t="n">
-        <v>63.44143245857622</v>
+        <v>63.44143245857617</v>
       </c>
       <c r="I46" t="n">
-        <v>56.66473487839492</v>
+        <v>56.66473487839488</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>78.50765132830612</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.2308579881089</v>
+        <v>118.4280514210415</v>
       </c>
       <c r="T46" t="n">
         <v>129.1598493794181</v>
@@ -26080,16 +26080,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>153.3519032749646</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>17.44777138595543</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>119.7989133032314</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>610463.2088288917</v>
+        <v>610463.2088288916</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>648218.7733307865</v>
+        <v>648218.7733307863</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>648218.7733307865</v>
+        <v>648218.7733307863</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642836</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="E2" t="n">
-        <v>645978.8491230652</v>
+        <v>645978.8491230651</v>
       </c>
       <c r="F2" t="n">
         <v>665718.6794083759</v>
       </c>
       <c r="G2" t="n">
+        <v>680312.2330895505</v>
+      </c>
+      <c r="H2" t="n">
         <v>680312.233089551</v>
       </c>
-      <c r="H2" t="n">
-        <v>680312.2330895509</v>
-      </c>
       <c r="I2" t="n">
-        <v>725718.47367548</v>
+        <v>725718.4736754802</v>
       </c>
       <c r="J2" t="n">
-        <v>699587.2213767538</v>
+        <v>699587.2213767536</v>
       </c>
       <c r="K2" t="n">
-        <v>706136.807049916</v>
+        <v>706136.8070499161</v>
       </c>
       <c r="L2" t="n">
         <v>809286.9955006496</v>
       </c>
       <c r="M2" t="n">
-        <v>763880.7549147203</v>
+        <v>763880.7549147204</v>
       </c>
       <c r="N2" t="n">
-        <v>763880.7549147203</v>
+        <v>763880.7549147202</v>
       </c>
       <c r="O2" t="n">
-        <v>620830.6871813047</v>
+        <v>620830.6871813046</v>
       </c>
       <c r="P2" t="n">
         <v>583151.9107734504</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5128.299304284603</v>
+        <v>5128.299304284621</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>9526.945118393667</v>
       </c>
       <c r="G3" t="n">
-        <v>9239.63651794547</v>
+        <v>9239.636517945466</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>91086.28208361297</v>
       </c>
       <c r="K3" t="n">
-        <v>12365.67498301143</v>
+        <v>12365.67498301138</v>
       </c>
       <c r="L3" t="n">
-        <v>79028.59203909068</v>
+        <v>79028.59203909074</v>
       </c>
       <c r="M3" t="n">
         <v>19618.2799071944</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388664.3358366502</v>
+        <v>391333.4803588955</v>
       </c>
       <c r="C4" t="n">
-        <v>388664.3358366502</v>
+        <v>391333.4803588954</v>
       </c>
       <c r="D4" t="n">
-        <v>388664.3358366502</v>
+        <v>391333.4803588954</v>
       </c>
       <c r="E4" t="n">
-        <v>250774.9474859782</v>
+        <v>254765.6815003394</v>
       </c>
       <c r="F4" t="n">
-        <v>262041.7926901378</v>
+        <v>266032.526704499</v>
       </c>
       <c r="G4" t="n">
-        <v>270317.3808340406</v>
+        <v>274308.1148484017</v>
       </c>
       <c r="H4" t="n">
-        <v>270317.3808340406</v>
+        <v>274308.1148484017</v>
       </c>
       <c r="I4" t="n">
-        <v>288319.9388169157</v>
+        <v>292604.905531824</v>
       </c>
       <c r="J4" t="n">
-        <v>273469.9827794046</v>
+        <v>277754.9494943128</v>
       </c>
       <c r="K4" t="n">
-        <v>277217.0309139324</v>
+        <v>281501.9976288406</v>
       </c>
       <c r="L4" t="n">
-        <v>335829.1918862834</v>
+        <v>340114.1586011916</v>
       </c>
       <c r="M4" t="n">
-        <v>317826.6339034083</v>
+        <v>321817.3679177694</v>
       </c>
       <c r="N4" t="n">
-        <v>317826.6339034083</v>
+        <v>321817.3679177694</v>
       </c>
       <c r="O4" t="n">
-        <v>236387.5681931492</v>
+        <v>240378.3022075103</v>
       </c>
       <c r="P4" t="n">
-        <v>214843.6029022326</v>
+        <v>218834.3369165938</v>
       </c>
     </row>
     <row r="5">
@@ -26494,7 +26494,7 @@
         <v>34713.79937141596</v>
       </c>
       <c r="K5" t="n">
-        <v>35012.11084765165</v>
+        <v>35012.11084765164</v>
       </c>
       <c r="L5" t="n">
         <v>42345.97047478559</v>
@@ -26509,7 +26509,7 @@
         <v>24257.94955661305</v>
       </c>
       <c r="P5" t="n">
-        <v>22958.48714392956</v>
+        <v>22958.48714392957</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>392691.1282824282</v>
+        <v>390021.983760183</v>
       </c>
       <c r="C6" t="n">
-        <v>397819.4275867132</v>
+        <v>395150.2830644679</v>
       </c>
       <c r="D6" t="n">
-        <v>397819.427586713</v>
+        <v>395150.2830644679</v>
       </c>
       <c r="E6" t="n">
-        <v>200114.0189883463</v>
+        <v>196123.284973985</v>
       </c>
       <c r="F6" t="n">
-        <v>367745.4273832559</v>
+        <v>363754.6933688948</v>
       </c>
       <c r="G6" t="n">
-        <v>373379.7427679425</v>
+        <v>369389.0087535809</v>
       </c>
       <c r="H6" t="n">
-        <v>382619.3792858878</v>
+        <v>378628.6452715268</v>
       </c>
       <c r="I6" t="n">
-        <v>361999.0689778439</v>
+        <v>357714.1022629358</v>
       </c>
       <c r="J6" t="n">
-        <v>300317.1571423202</v>
+        <v>296032.1904274119</v>
       </c>
       <c r="K6" t="n">
-        <v>381541.9903053205</v>
+        <v>377257.0235904126</v>
       </c>
       <c r="L6" t="n">
-        <v>352083.2411004899</v>
+        <v>347798.2743855817</v>
       </c>
       <c r="M6" t="n">
-        <v>393026.7273633489</v>
+        <v>389035.993348988</v>
       </c>
       <c r="N6" t="n">
-        <v>412645.0072705434</v>
+        <v>408654.2732561821</v>
       </c>
       <c r="O6" t="n">
-        <v>360185.1694315424</v>
+        <v>356194.4354171812</v>
       </c>
       <c r="P6" t="n">
-        <v>345349.8207272883</v>
+        <v>341359.086712927</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>132.3112428319276</v>
       </c>
       <c r="K2" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="L2" t="n">
         <v>223.0958495641314</v>
@@ -26725,7 +26725,7 @@
         <v>114.2428337776276</v>
       </c>
       <c r="P2" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
     </row>
     <row r="3">
@@ -26920,7 +26920,7 @@
         <v>11.90868139799208</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54954564743184</v>
+        <v>11.54954564743183</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>108.8530157865037</v>
       </c>
       <c r="K2" t="n">
-        <v>15.45709372876428</v>
+        <v>15.45709372876423</v>
       </c>
       <c r="L2" t="n">
-        <v>98.78574004886335</v>
+        <v>98.78574004886343</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>11.90868139799208</v>
       </c>
       <c r="L2" t="n">
-        <v>11.54954564743184</v>
+        <v>11.54954564743183</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>108.8530157865037</v>
       </c>
       <c r="P2" t="n">
-        <v>15.45709372876428</v>
+        <v>15.45709372876423</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375.8924415141719</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>137.9544741789399</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>370.9352011409185</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>153.8011237727943</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>122.0407796480756</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>158.9511112267647</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>190.4702476883424</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>164.5292426668022</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,13 +27555,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>144.6932644590339</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>6.966754310747802</v>
+        <v>8.790840622551908</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>381.2044798147622</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>371.9743164501198</v>
       </c>
       <c r="F5" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27670,10 +27670,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>236.0429153927014</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>312.4495209549999</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>134.7130056875657</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,10 +27713,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.85509663750808</v>
+        <v>86.67918294931219</v>
       </c>
       <c r="S6" t="n">
         <v>156.3804335887028</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27755,7 +27755,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>133.3127355030773</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>78.05644260153773</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27813,16 +27813,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>208.7138605218372</v>
+        <v>210.5379468336413</v>
       </c>
       <c r="T7" t="n">
         <v>212.6428519131464</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>275.7657878683665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>339.3803041055479</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,10 +27871,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>200.5198359482639</v>
+        <v>195.1731520552709</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>342.6383632557935</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>370.9352011409185</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>151.2304461347323</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>220.0685272723522</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>190.4702476883424</v>
+        <v>192.2943340001465</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>190.3799582621693</v>
       </c>
     </row>
     <row r="10">
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>78.05644260153773</v>
       </c>
       <c r="K10" t="n">
-        <v>6.966754310747802</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
-        <v>161.9906538620344</v>
+        <v>166.5361809089451</v>
       </c>
       <c r="S10" t="n">
-        <v>208.7138605218372</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>217.1883789600571</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>203.2819158369597</v>
       </c>
     </row>
     <row r="11">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>127.8675197323504</v>
       </c>
       <c r="C12" t="n">
         <v>127.8675197323504</v>
@@ -28235,7 +28235,7 @@
         <v>127.8675197323504</v>
       </c>
       <c r="Y12" t="n">
-        <v>127.8675197323504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28415,19 +28415,19 @@
         <v>139.7762011303425</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="G15" t="n">
-        <v>37.76185085306416</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>11.98769361805971</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>139.7762011303425</v>
@@ -28466,7 +28466,7 @@
         <v>139.7762011303425</v>
       </c>
       <c r="W15" t="n">
-        <v>139.7762011303425</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>139.7762011303425</v>
@@ -28518,10 +28518,10 @@
         <v>139.7762011303425</v>
       </c>
       <c r="N16" t="n">
-        <v>44.50674994640602</v>
+        <v>139.7762011303425</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7762011303425</v>
+        <v>44.50674994640595</v>
       </c>
       <c r="P16" t="n">
         <v>139.7762011303425</v>
@@ -28643,25 +28643,25 @@
         <v>151.3257467777744</v>
       </c>
       <c r="C18" t="n">
-        <v>151.3257467777744</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>127.1057993223256</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,16 +28688,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>34.24753676978925</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="T18" t="n">
         <v>151.3257467777744</v>
       </c>
       <c r="U18" t="n">
-        <v>151.3257467777744</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>151.3257467777744</v>
@@ -28746,13 +28746,13 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>63.35217458748212</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>151.3257467777744</v>
+        <v>127.2447260132937</v>
       </c>
       <c r="N19" t="n">
         <v>151.3257467777744</v>
@@ -28764,7 +28764,7 @@
         <v>151.3257467777744</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="R19" t="n">
         <v>151.3257467777744</v>
@@ -28889,10 +28889,10 @@
         <v>151.3257467777744</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>122.6816394234553</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -28928,19 +28928,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="T21" t="n">
-        <v>141.0880289368893</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="U21" t="n">
-        <v>151.3257467777744</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>151.3257467777744</v>
       </c>
       <c r="W21" t="n">
-        <v>151.3257467777744</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>151.3257467777744</v>
@@ -28962,10 +28962,10 @@
         <v>151.3257467777744</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -28980,7 +28980,7 @@
         <v>151.3257467777744</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -28992,16 +28992,16 @@
         <v>151.3257467777744</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>61.67610146142502</v>
       </c>
       <c r="O22" t="n">
-        <v>151.3257467777744</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>151.3257467777744</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.2447260132936</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="R22" t="n">
         <v>151.3257467777744</v>
@@ -29059,7 +29059,7 @@
         <v>151.3257467777744</v>
       </c>
       <c r="J23" t="n">
-        <v>149.9749491486883</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29068,22 +29068,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>138.5276210975187</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>151.3257467777744</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>151.3257467777744</v>
       </c>
       <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
         <v>151.3257467777744</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>151.3257467777744</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>151.3257467777744</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>151.3257467777744</v>
@@ -29123,19 +29123,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>124.792945308167</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,25 +29162,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>67.2157462354883</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>151.3257467777744</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>151.3257467777744</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>151.3257467777744</v>
@@ -29199,13 +29199,13 @@
         <v>151.3257467777744</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="G25" t="n">
         <v>151.3257467777744</v>
@@ -29217,28 +29217,28 @@
         <v>151.3257467777744</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>151.3257467777744</v>
       </c>
       <c r="M25" t="n">
         <v>151.3257467777744</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>75.31945379735815</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q25" t="n">
         <v>151.3257467777744</v>
-      </c>
-      <c r="O25" t="n">
-        <v>151.3257467777744</v>
-      </c>
-      <c r="P25" t="n">
-        <v>151.3257467777744</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>127.2447260132936</v>
       </c>
       <c r="R25" t="n">
         <v>151.3257467777744</v>
@@ -29299,22 +29299,22 @@
         <v>132.3112428319276</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>132.3112428319276</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>74.70721815430065</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>132.3112428319276</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>132.3112428319276</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>74.7072181543007</v>
       </c>
       <c r="Q26" t="n">
         <v>132.3112428319276</v>
@@ -29354,16 +29354,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>132.3112428319276</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>132.3112428319276</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>132.3112428319276</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>132.3112428319276</v>
@@ -29408,19 +29408,19 @@
         <v>132.3112428319276</v>
       </c>
       <c r="U27" t="n">
-        <v>132.3112428319276</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>132.3112428319276</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>132.3112428319276</v>
+        <v>89.45240664987833</v>
       </c>
       <c r="X27" t="n">
         <v>132.3112428319276</v>
       </c>
       <c r="Y27" t="n">
-        <v>121.6058153291627</v>
+        <v>132.3112428319276</v>
       </c>
     </row>
     <row r="28">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="C29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="E29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="F29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="G29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="H29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="I29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="J29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="K29" t="n">
-        <v>135.8596551626999</v>
+        <v>60.51356883121204</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="N29" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>60.51356883121187</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Q29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="R29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="S29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="U29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="V29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="W29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="X29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Y29" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="30">
@@ -29588,31 +29588,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D30" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>75.9445390920682</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="V30" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="W30" t="n">
-        <v>135.8596551626999</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>135.8596551626999</v>
+        <v>130.3859422596854</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="C31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="D31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="E31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="F31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="G31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="H31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="I31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="J31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="K31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="L31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="M31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="N31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="O31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="P31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Q31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="R31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="S31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="T31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="U31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="V31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="W31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="X31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.8596551626999</v>
+        <v>135.8596551626998</v>
       </c>
     </row>
     <row r="32">
@@ -29767,37 +29767,37 @@
         <v>223.0958495641314</v>
       </c>
       <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>135.8205017845912</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>223.0958495641314</v>
       </c>
-      <c r="J32" t="n">
+      <c r="P32" t="n">
         <v>223.0958495641314</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>57.83801875915569</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>223.0958495641314</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>223.0958495641314</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>223.0958495641314</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -29834,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -29843,13 +29843,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29885,16 +29885,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>102.8209711838158</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>167.7653914246668</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>211.3486100166936</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -29949,7 +29949,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>117.6786730864507</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -30065,13 +30065,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>22.00691837567913</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30116,13 +30116,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>223.0958495641314</v>
@@ -30131,7 +30131,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>154.3711427078582</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>211.3486100166936</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30168,7 +30168,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>53.78612166063914</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>83.88067197567818</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -30320,7 +30320,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30353,19 +30353,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>148.7285191242957</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>211.3486100166936</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30387,7 +30387,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>177.9505924813255</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="C44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="D44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="E44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="F44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="G44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="H44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="I44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30742,28 +30742,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="S44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="T44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="U44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="V44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="W44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="X44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="Y44" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
     </row>
     <row r="45">
@@ -30773,25 +30773,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="C45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="D45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="E45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="F45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="G45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="H45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="S45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="T45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="U45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="V45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="W45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="X45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="Y45" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
     </row>
     <row r="46">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="C46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="D46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="E46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="F46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="G46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="H46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="I46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="J46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="K46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="L46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="M46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="N46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="O46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="P46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="R46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="S46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="T46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="U46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="V46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="W46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="X46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.78574004886336</v>
+        <v>98.7857400488634</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M2" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="P2" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>15.30273751513505</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O5" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P5" t="n">
         <v>15.30273751513505</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N6" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35097,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M7" t="n">
         <v>15.30273751513505</v>
@@ -35106,7 +35106,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O7" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L9" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>15.30273751513505</v>
@@ -35337,10 +35337,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M10" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N10" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="N10" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
         <v>15.30273751513505</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35735,16 +35735,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,10 +35814,10 @@
         <v>179.3600780921831</v>
       </c>
       <c r="N16" t="n">
-        <v>88.63892232563461</v>
+        <v>183.9083735095711</v>
       </c>
       <c r="O16" t="n">
-        <v>164.3613290443822</v>
+        <v>69.09187786044562</v>
       </c>
       <c r="P16" t="n">
         <v>137.054760395236</v>
@@ -35893,7 +35893,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>41.08268276159927</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M19" t="n">
-        <v>190.9096237396149</v>
+        <v>166.8286029751343</v>
       </c>
       <c r="N19" t="n">
         <v>195.4579191570029</v>
@@ -36060,7 +36060,7 @@
         <v>148.6043060426678</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.16370352607997</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36258,10 +36258,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2.710273759562</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4.891784131205185</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>57.96656666110158</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -36288,16 +36288,16 @@
         <v>190.9096237396149</v>
       </c>
       <c r="N22" t="n">
-        <v>44.13217237922859</v>
+        <v>105.8082738406536</v>
       </c>
       <c r="O22" t="n">
-        <v>175.910874691814</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P22" t="n">
         <v>148.6043060426678</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.08268276159923</v>
+        <v>65.16370352607997</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>138.0256597940758</v>
+        <v>139.3764574231618</v>
       </c>
       <c r="K23" t="n">
         <v>104.0555615261842</v>
@@ -36364,22 +36364,22 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
-        <v>370.4930470433341</v>
+        <v>357.6949213630785</v>
       </c>
       <c r="N23" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7019698410586</v>
+        <v>302.027716618833</v>
       </c>
       <c r="P23" t="n">
         <v>241.8914591939875</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.3350475632296</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.456628836624674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36495,13 +36495,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2.710273759562</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4.891784131205185</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>5.90469875484311</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>57.96656666110158</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>129.0562549518915</v>
       </c>
       <c r="L25" t="n">
-        <v>27.59002526031614</v>
+        <v>178.9157720380905</v>
       </c>
       <c r="M25" t="n">
         <v>190.9096237396149</v>
       </c>
       <c r="N25" t="n">
-        <v>195.4579191570029</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O25" t="n">
-        <v>175.910874691814</v>
+        <v>99.90458171139782</v>
       </c>
       <c r="P25" t="n">
-        <v>148.6043060426678</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.08268276159923</v>
+        <v>65.16370352607997</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>120.3619534773151</v>
       </c>
       <c r="K26" t="n">
-        <v>104.0555615261842</v>
+        <v>236.3668043581118</v>
       </c>
       <c r="L26" t="n">
-        <v>314.2060424123908</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>293.8745184198604</v>
       </c>
       <c r="N26" t="n">
-        <v>340.2451036473209</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
-        <v>165.2729305705138</v>
+        <v>222.8769552481407</v>
       </c>
       <c r="Q26" t="n">
         <v>122.3205436173828</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>123.9103658080873</v>
+        <v>123.9103658080872</v>
       </c>
       <c r="K29" t="n">
-        <v>239.915216688884</v>
+        <v>164.5691303573962</v>
       </c>
       <c r="L29" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>355.0269554282595</v>
       </c>
       <c r="N29" t="n">
-        <v>343.7935159780931</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>151.079281247425</v>
+        <v>226.4253675789129</v>
       </c>
       <c r="Q29" t="n">
         <v>125.868955948155</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.50047504602708</v>
+        <v>42.50047504602699</v>
       </c>
       <c r="K31" t="n">
-        <v>113.590163336817</v>
+        <v>113.5901633368169</v>
       </c>
       <c r="L31" t="n">
-        <v>163.449680423016</v>
+        <v>163.4496804230159</v>
       </c>
       <c r="M31" t="n">
         <v>175.4435321245404</v>
@@ -37002,13 +37002,13 @@
         <v>179.9918275419284</v>
       </c>
       <c r="O31" t="n">
-        <v>160.4447830767395</v>
+        <v>160.4447830767394</v>
       </c>
       <c r="P31" t="n">
         <v>133.1382144275933</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.69761191100547</v>
+        <v>49.69761191100538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>12.61995999372544</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>211.1465602095188</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>104.0555615261842</v>
       </c>
       <c r="L32" t="n">
-        <v>239.7328183396189</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>354.987802050151</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410586</v>
+        <v>373.79781940519</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>313.6615619803445</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.1051503495866</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.22673162298167</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.07577997788601</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.5166298347563</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>31.51662983475627</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37437,34 +37437,34 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>31.51662983475629</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>27.59002526031614</v>
@@ -37625,22 +37625,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>31.51662983475627</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>31.51662983475629</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.426559932190585</v>
+        <v>5.426559932190628</v>
       </c>
       <c r="K46" t="n">
-        <v>76.51624822298051</v>
+        <v>76.51624822298055</v>
       </c>
       <c r="L46" t="n">
         <v>126.3757653091795</v>
@@ -38184,16 +38184,16 @@
         <v>138.369617010704</v>
       </c>
       <c r="N46" t="n">
-        <v>142.9179124280919</v>
+        <v>142.917912428092</v>
       </c>
       <c r="O46" t="n">
-        <v>123.370867962903</v>
+        <v>123.3708679629031</v>
       </c>
       <c r="P46" t="n">
-        <v>96.06429931375685</v>
+        <v>96.06429931375689</v>
       </c>
       <c r="Q46" t="n">
-        <v>12.62369679716898</v>
+        <v>12.62369679716902</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
